--- a/upload_seed_data/data/domain_goal/domain_target.xlsx
+++ b/upload_seed_data/data/domain_goal/domain_target.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>DomainCode</t>
+    <t>ID</t>
   </si>
   <si>
     <t>FSM(SES)</t>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>NAT_2440</t>
+  </si>
+  <si>
+    <t>Netherland</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
   </si>
   <si>
     <t>CzechRepublic</t>
@@ -588,7 +597,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="&quot; &quot;* #,##0&quot; &quot;;&quot;-&quot;* #,##0&quot; &quot;;&quot; &quot;* &quot;- &quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -620,6 +629,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Pretendard"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Pretendard Regular"/>
     </font>
   </fonts>
   <fills count="7">
@@ -655,12 +669,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="18"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -921,7 +935,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="17"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
@@ -932,14 +946,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="11"/>
+      <left style="thin">
+        <color indexed="17"/>
       </left>
-      <right style="medium">
-        <color indexed="11"/>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -956,6 +1015,81 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="medium">
+        <color indexed="11"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="11"/>
       </left>
@@ -963,6 +1097,19 @@
         <color indexed="11"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
       <bottom style="thin">
         <color indexed="13"/>
       </bottom>
@@ -984,9 +1131,110 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="11"/>
+      </left>
+      <right style="medium">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="medium">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="medium">
+        <color indexed="11"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
@@ -1083,36 +1331,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1127,7 +1345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1197,10 +1415,61 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="59" fontId="5" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1209,23 +1478,41 @@
     <xf numFmtId="59" fontId="5" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
@@ -1233,28 +1520,31 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="3" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,6 +1572,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffffc000"/>
       <rgbColor rgb="fff9fafb"/>
+      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="fff9fef8"/>
     </indexedColors>
   </colors>
@@ -2314,14 +2605,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="17" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="2" width="20.8516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1562" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.17188" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.6719" style="1" customWidth="1"/>
     <col min="5" max="6" width="9.17188" style="1" customWidth="1"/>
     <col min="7" max="7" hidden="1" width="8.83333" style="1" customWidth="1"/>
@@ -2329,7 +2620,7 @@
     <col min="12" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
+    <row r="1" ht="29" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2405,21 +2696,21 @@
       <c r="B4" t="s" s="22">
         <v>11</v>
       </c>
-      <c r="C4" s="12">
-        <v>9</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1770</v>
-      </c>
-      <c r="E4" s="12">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13">
-        <v>78</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="24"/>
+      <c r="C4" s="23">
+        <v>1.54545454545455</v>
+      </c>
+      <c r="D4" s="23">
+        <v>303.939393939394</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.2020202020202</v>
+      </c>
+      <c r="F4" s="24">
+        <v>13.3939393939394</v>
+      </c>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
@@ -2430,12 +2721,20 @@
       <c r="B5" t="s" s="22">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="7"/>
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23">
+        <v>196.666666666667</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="F5" s="24">
+        <v>8.66666666666667</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
@@ -2447,12 +2746,20 @@
       <c r="B6" t="s" s="22">
         <v>15</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="7"/>
+      <c r="C6" s="23">
+        <v>1.63636363636364</v>
+      </c>
+      <c r="D6" s="23">
+        <v>321.818181818182</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1.27272727272727</v>
+      </c>
+      <c r="F6" s="24">
+        <v>14.1818181818182</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2464,12 +2771,20 @@
       <c r="B7" t="s" s="22">
         <v>17</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="23">
+        <v>0.545454545454545</v>
+      </c>
+      <c r="D7" s="23">
+        <v>107.272727272727</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.424242424242424</v>
+      </c>
+      <c r="F7" s="24">
+        <v>4.72727272727273</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2481,12 +2796,20 @@
       <c r="B8" t="s" s="22">
         <v>19</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="7"/>
+      <c r="C8" s="23">
+        <v>2.54545454545455</v>
+      </c>
+      <c r="D8" s="23">
+        <v>500.606060606061</v>
+      </c>
+      <c r="E8" s="23">
+        <v>1.97979797979798</v>
+      </c>
+      <c r="F8" s="24">
+        <v>22.0606060606061</v>
+      </c>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2498,12 +2821,20 @@
       <c r="B9" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="28">
+        <v>1.72727272727273</v>
+      </c>
+      <c r="D9" s="28">
+        <v>339.696969696970</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1.34343434343434</v>
+      </c>
+      <c r="F9" s="29">
+        <v>14.969696969697</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2512,22 +2843,22 @@
       <c r="A10" t="s" s="21">
         <v>22</v>
       </c>
-      <c r="B10" t="s" s="22">
+      <c r="B10" t="s" s="30">
         <v>23</v>
       </c>
-      <c r="C10" s="25">
-        <v>0</v>
-      </c>
-      <c r="D10" s="25">
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
         <v>279</v>
       </c>
-      <c r="E10" s="25">
-        <v>0</v>
-      </c>
-      <c r="F10" s="26">
+      <c r="E10" s="31">
+        <v>0</v>
+      </c>
+      <c r="F10" s="32">
         <v>48</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="7"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -2537,19 +2868,19 @@
       <c r="A11" t="s" s="21">
         <v>24</v>
       </c>
-      <c r="B11" t="s" s="22">
+      <c r="B11" t="s" s="30">
         <v>25</v>
       </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25">
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
         <v>220</v>
       </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="F11" s="26">
+      <c r="E11" s="34">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
         <v>30</v>
       </c>
       <c r="G11" s="20"/>
@@ -2559,849 +2890,939 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" t="s" s="28">
+      <c r="A12" t="s" s="36">
         <v>26</v>
       </c>
-      <c r="B12" t="s" s="29">
+      <c r="B12" t="s" s="37">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
-        <v>39</v>
-      </c>
-      <c r="D12" s="12">
-        <v>865</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13">
-        <v>30</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="23">
+        <v>6.16086956521739</v>
+      </c>
+      <c r="D12" s="23">
+        <v>136.644927536232</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
+        <v>4.73913043478261</v>
+      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" t="s" s="28">
+      <c r="A13" t="s" s="36">
         <v>28</v>
       </c>
-      <c r="B13" t="s" s="29">
+      <c r="B13" t="s" s="37">
         <v>29</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="7"/>
+      <c r="C13" s="23">
+        <v>13</v>
+      </c>
+      <c r="D13" s="23">
+        <v>288.333333333333</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>10</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" t="s" s="28">
+      <c r="A14" t="s" s="36">
         <v>30</v>
       </c>
-      <c r="B14" t="s" s="29">
+      <c r="B14" t="s" s="37">
         <v>31</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="9"/>
+      <c r="C14" s="23">
+        <v>19.8391304347826</v>
+      </c>
+      <c r="D14" s="23">
+        <v>440.021739130435</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <v>15.2608695652174</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" t="s" s="28">
+      <c r="A15" t="s" s="36">
         <v>32</v>
       </c>
-      <c r="B15" t="s" s="29">
+      <c r="B15" s="38"/>
+      <c r="C15" s="23">
+        <v>11.9</v>
+      </c>
+      <c r="D15" s="23">
+        <v>652.12</v>
+      </c>
+      <c r="E15" s="23">
+        <v>11.9</v>
+      </c>
+      <c r="F15" s="24">
+        <v>22.1</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" ht="18" customHeight="1">
+      <c r="A16" t="s" s="36">
         <v>33</v>
       </c>
-      <c r="C15" s="12">
-        <v>71</v>
-      </c>
-      <c r="D15" s="12">
-        <v>724</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13">
+      <c r="B16" s="38"/>
+      <c r="C16" s="23">
+        <v>11.55</v>
+      </c>
+      <c r="D16" s="23">
+        <v>632.9400000000001</v>
+      </c>
+      <c r="E16" s="23">
+        <v>11.55</v>
+      </c>
+      <c r="F16" s="24">
+        <v>21.45</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" ht="18" customHeight="1">
+      <c r="A17" t="s" s="36">
+        <v>34</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="23">
+        <v>11.55</v>
+      </c>
+      <c r="D17" s="23">
+        <v>632.9400000000001</v>
+      </c>
+      <c r="E17" s="23">
+        <v>11.55</v>
+      </c>
+      <c r="F17" s="24">
+        <v>21.45</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" ht="18" customHeight="1">
+      <c r="A18" t="s" s="36">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s" s="37">
         <v>36</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" t="s" s="28">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s" s="29">
-        <v>35</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" t="s" s="28">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s" s="29">
+      <c r="C18" s="23">
+        <v>56.8</v>
+      </c>
+      <c r="D18" s="23">
+        <v>579.2</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24">
+        <v>28.8</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" ht="18" customHeight="1">
+      <c r="A19" t="s" s="36">
         <v>37</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12">
-        <v>1999</v>
-      </c>
-      <c r="E17" s="12">
-        <v>40</v>
-      </c>
-      <c r="F17" s="13">
-        <v>105</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" t="s" s="28">
+      <c r="B19" t="s" s="37">
         <v>38</v>
       </c>
-      <c r="B18" t="s" s="29">
-        <v>39</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
-        <v>5247</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13">
-        <v>462</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" t="s" s="28">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s" s="29">
-        <v>41</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12">
-        <v>620</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13">
-        <v>45</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="24"/>
+      <c r="C19" s="23">
+        <v>14.2</v>
+      </c>
+      <c r="D19" s="23">
+        <v>144.8</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24">
+        <v>7.2</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" t="s" s="28">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s" s="29">
-        <v>43</v>
+      <c r="A20" t="s" s="36">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s" s="40">
+        <v>40</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="23"/>
+      <c r="D20" s="12">
+        <v>1999</v>
+      </c>
+      <c r="E20" s="12">
+        <v>40</v>
+      </c>
+      <c r="F20" s="13">
+        <v>105</v>
+      </c>
+      <c r="G20" s="33"/>
       <c r="H20" s="7"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" t="s" s="28">
+      <c r="A21" t="s" s="36">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s" s="40">
+        <v>42</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12">
+        <v>5247</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13">
+        <v>462</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" ht="18" customHeight="1">
+      <c r="A22" t="s" s="36">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s" s="37">
         <v>44</v>
       </c>
-      <c r="B21" t="s" s="29">
-        <v>45</v>
-      </c>
-      <c r="C21" s="12">
-        <v>46</v>
-      </c>
-      <c r="D21" s="12">
-        <v>341</v>
-      </c>
-      <c r="E21" s="12">
-        <v>10</v>
-      </c>
-      <c r="F21" s="13">
-        <v>32</v>
-      </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" t="s" s="28">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s" s="29">
-        <v>47</v>
-      </c>
-      <c r="C22" s="12">
-        <v>10</v>
-      </c>
-      <c r="D22" s="12">
-        <v>1305</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <v>262</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="9"/>
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+      <c r="D22" s="23">
+        <v>10.6285714285714</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.771428571428571</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" t="s" s="21">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s" s="22">
-        <v>49</v>
-      </c>
-      <c r="C23" s="25">
-        <v>34</v>
-      </c>
-      <c r="D23" s="25">
-        <v>553</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <v>58</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="7"/>
+      <c r="A23" t="s" s="36">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="37">
+        <v>46</v>
+      </c>
+      <c r="C23" s="23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="23">
+        <v>609.371428571429</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24">
+        <v>44.2285714285714</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" t="s" s="21">
-        <v>50</v>
-      </c>
-      <c r="B24" t="s" s="22">
-        <v>51</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0</v>
-      </c>
-      <c r="D24" s="25">
-        <v>2508</v>
-      </c>
-      <c r="E24" s="25">
-        <v>42</v>
-      </c>
-      <c r="F24" s="26">
-        <v>268</v>
-      </c>
-      <c r="G24" s="20"/>
+      <c r="A24" t="s" s="36">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s" s="40">
+        <v>48</v>
+      </c>
+      <c r="C24" s="12">
+        <v>46</v>
+      </c>
+      <c r="D24" s="12">
+        <v>341</v>
+      </c>
+      <c r="E24" s="12">
+        <v>10</v>
+      </c>
+      <c r="F24" s="13">
+        <v>32</v>
+      </c>
+      <c r="G24" s="33"/>
       <c r="H24" s="7"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" t="s" s="28">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s" s="29">
-        <v>53</v>
-      </c>
-      <c r="C25" s="12"/>
+      <c r="A25" t="s" s="36">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s" s="40">
+        <v>50</v>
+      </c>
+      <c r="C25" s="12">
+        <v>10</v>
+      </c>
       <c r="D25" s="12">
-        <v>1016</v>
-      </c>
-      <c r="E25" s="12"/>
+        <v>1305</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1</v>
+      </c>
       <c r="F25" s="13">
-        <v>40</v>
-      </c>
-      <c r="G25" s="23"/>
+        <v>262</v>
+      </c>
+      <c r="G25" s="41"/>
       <c r="H25" s="7"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" t="s" s="28">
-        <v>54</v>
-      </c>
-      <c r="B26" t="s" s="29">
-        <v>55</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="23"/>
+      <c r="A26" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="30">
+        <v>52</v>
+      </c>
+      <c r="C26" s="42">
+        <v>34</v>
+      </c>
+      <c r="D26" s="42">
+        <v>553</v>
+      </c>
+      <c r="E26" s="42">
+        <v>0</v>
+      </c>
+      <c r="F26" s="43">
+        <v>58</v>
+      </c>
+      <c r="G26" s="41"/>
       <c r="H26" s="7"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" t="s" s="28">
-        <v>56</v>
-      </c>
-      <c r="B27" t="s" s="29">
-        <v>57</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="23"/>
+      <c r="A27" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s" s="30">
+        <v>54</v>
+      </c>
+      <c r="C27" s="42">
+        <v>0</v>
+      </c>
+      <c r="D27" s="42">
+        <v>2508</v>
+      </c>
+      <c r="E27" s="42">
+        <v>42</v>
+      </c>
+      <c r="F27" s="43">
+        <v>268</v>
+      </c>
+      <c r="G27" s="20"/>
       <c r="H27" s="7"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" t="s" s="28">
-        <v>58</v>
-      </c>
-      <c r="B28" t="s" s="29">
-        <v>59</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="7"/>
+      <c r="A28" t="s" s="36">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s" s="37">
+        <v>56</v>
+      </c>
+      <c r="C28" s="23">
+        <v>0</v>
+      </c>
+      <c r="D28" s="23">
+        <v>599.094240837696</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0</v>
+      </c>
+      <c r="F28" s="24">
+        <v>23.586387434555</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" t="s" s="28">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s" s="29">
-        <v>61</v>
-      </c>
-      <c r="C29" s="12">
-        <v>134</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1407</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13">
-        <v>178</v>
-      </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="7"/>
+      <c r="A29" t="s" s="36">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s" s="37">
+        <v>58</v>
+      </c>
+      <c r="C29" s="23">
+        <v>0</v>
+      </c>
+      <c r="D29" s="23">
+        <v>209.450261780105</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0</v>
+      </c>
+      <c r="F29" s="24">
+        <v>8.246073298429319</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" t="s" s="28">
-        <v>62</v>
-      </c>
-      <c r="B30" t="s" s="29">
-        <v>63</v>
-      </c>
-      <c r="C30" s="12">
-        <v>44</v>
-      </c>
-      <c r="D30" s="12">
-        <v>2783</v>
-      </c>
-      <c r="E30" s="12">
-        <v>7</v>
-      </c>
-      <c r="F30" s="13">
-        <v>77</v>
-      </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="7"/>
+      <c r="A30" t="s" s="36">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s" s="37">
+        <v>60</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0</v>
+      </c>
+      <c r="D30" s="23">
+        <v>151.602094240838</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="24">
+        <v>5.96858638743455</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" t="s" s="28">
-        <v>64</v>
-      </c>
-      <c r="B31" t="s" s="29">
-        <v>65</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8"/>
+      <c r="A31" t="s" s="36">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s" s="37">
+        <v>62</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
+      <c r="D31" s="23">
+        <v>55.8534031413613</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0</v>
+      </c>
+      <c r="F31" s="24">
+        <v>2.19895287958115</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="28">
+    <row r="32" ht="18" customHeight="1">
+      <c r="A32" t="s" s="36">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s" s="40">
+        <v>64</v>
+      </c>
+      <c r="C32" s="12">
+        <v>134</v>
+      </c>
+      <c r="D32" s="12">
+        <v>1407</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13">
+        <v>178</v>
+      </c>
+      <c r="G32" s="44"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+    </row>
+    <row r="33" ht="18" customHeight="1">
+      <c r="A33" t="s" s="36">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s" s="37">
         <v>66</v>
       </c>
-      <c r="B32" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="C32" s="12">
-        <v>258</v>
-      </c>
-      <c r="D32" s="12">
-        <v>14375</v>
-      </c>
-      <c r="E32" s="12">
-        <v>258</v>
-      </c>
-      <c r="F32" s="13">
-        <v>102</v>
-      </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" ht="18" customHeight="1">
-      <c r="A33" t="s" s="28">
-        <v>68</v>
-      </c>
-      <c r="B33" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12">
-        <v>2541</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13">
-        <v>859</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="24"/>
+      <c r="C33" s="23">
+        <v>19.3544303797468</v>
+      </c>
+      <c r="D33" s="23">
+        <v>1224.167721518990</v>
+      </c>
+      <c r="E33" s="23">
+        <v>3.07911392405063</v>
+      </c>
+      <c r="F33" s="24">
+        <v>33.870253164557</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" t="s" s="28">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s" s="29">
-        <v>71</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12">
-        <v>483</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="13">
-        <v>334</v>
-      </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="9"/>
+      <c r="A34" t="s" s="36">
+        <v>67</v>
+      </c>
+      <c r="B34" t="s" s="37">
+        <v>68</v>
+      </c>
+      <c r="C34" s="23">
+        <v>24.6455696202532</v>
+      </c>
+      <c r="D34" s="23">
+        <v>1558.832278481010</v>
+      </c>
+      <c r="E34" s="23">
+        <v>3.92088607594937</v>
+      </c>
+      <c r="F34" s="24">
+        <v>43.129746835443</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" t="s" s="28">
+      <c r="A35" t="s" s="36">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s" s="40">
+        <v>70</v>
+      </c>
+      <c r="C35" s="12">
+        <v>258</v>
+      </c>
+      <c r="D35" s="12">
+        <v>14375</v>
+      </c>
+      <c r="E35" s="12">
+        <v>258</v>
+      </c>
+      <c r="F35" s="13">
+        <v>102</v>
+      </c>
+      <c r="G35" s="44"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" ht="18" customHeight="1">
+      <c r="A36" t="s" s="36">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s" s="40">
         <v>72</v>
       </c>
-      <c r="B35" t="s" s="29">
-        <v>73</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" ht="18" customHeight="1">
-      <c r="A36" t="s" s="28">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s" s="29">
-        <v>75</v>
-      </c>
       <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="12">
+        <v>2541</v>
+      </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="13">
+        <v>859</v>
+      </c>
+      <c r="G36" s="44"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" t="s" s="28">
-        <v>76</v>
-      </c>
-      <c r="B37" t="s" s="29">
-        <v>77</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12">
-        <v>870</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="13">
-        <v>122</v>
-      </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
+      <c r="A37" t="s" s="36">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s" s="37">
+        <v>74</v>
+      </c>
+      <c r="C37" s="23">
+        <v>0</v>
+      </c>
+      <c r="D37" s="23">
+        <v>473.849258649094</v>
+      </c>
+      <c r="E37" s="23">
+        <v>0</v>
+      </c>
+      <c r="F37" s="24">
+        <v>327.672158154860</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" t="s" s="28">
+      <c r="A38" t="s" s="36">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s" s="37">
+        <v>76</v>
+      </c>
+      <c r="C38" s="23">
+        <v>0</v>
+      </c>
+      <c r="D38" s="23">
+        <v>7.95716639209226</v>
+      </c>
+      <c r="E38" s="23">
+        <v>0</v>
+      </c>
+      <c r="F38" s="24">
+        <v>5.50247116968699</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" ht="18" customHeight="1">
+      <c r="A39" t="s" s="36">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s" s="37">
         <v>78</v>
       </c>
-      <c r="B38" t="s" s="29">
+      <c r="C39" s="23">
+        <v>0</v>
+      </c>
+      <c r="D39" s="23">
+        <v>1.19357495881384</v>
+      </c>
+      <c r="E39" s="23">
+        <v>0</v>
+      </c>
+      <c r="F39" s="24">
+        <v>0.825370675453048</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" ht="18" customHeight="1">
+      <c r="A40" t="s" s="36">
         <v>79</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12">
-        <v>2027</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" ht="18" customHeight="1">
-      <c r="A39" t="s" s="10">
+      <c r="B40" t="s" s="40">
         <v>80</v>
       </c>
-      <c r="B39" t="s" s="11">
-        <v>81</v>
-      </c>
-      <c r="C39" s="12">
-        <v>30</v>
-      </c>
-      <c r="D39" s="12">
-        <v>642</v>
-      </c>
-      <c r="E39" s="12">
-        <v>43</v>
-      </c>
-      <c r="F39" s="13">
-        <v>235</v>
-      </c>
-      <c r="G39" s="23"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" ht="18" customHeight="1">
-      <c r="A40" t="s" s="18">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s" s="19">
-        <v>83</v>
-      </c>
-      <c r="C40" s="12">
-        <v>302</v>
-      </c>
+      <c r="C40" s="12"/>
       <c r="D40" s="12">
-        <v>2967</v>
-      </c>
-      <c r="E40" s="12">
-        <v>25</v>
-      </c>
+        <v>870</v>
+      </c>
+      <c r="E40" s="12"/>
       <c r="F40" s="13">
-        <v>153</v>
-      </c>
-      <c r="G40" s="23"/>
+        <v>122</v>
+      </c>
+      <c r="G40" s="44"/>
       <c r="H40" s="7"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" t="s" s="28">
-        <v>84</v>
-      </c>
-      <c r="B41" t="s" s="29">
-        <v>85</v>
+      <c r="A41" t="s" s="36">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s" s="40">
+        <v>82</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12">
-        <v>4062</v>
-      </c>
-      <c r="E41" s="12">
-        <v>28</v>
-      </c>
-      <c r="F41" s="13">
-        <v>2324</v>
-      </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
+        <v>2027</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
       <c r="K41" s="9"/>
     </row>
     <row r="42" ht="18" customHeight="1">
-      <c r="A42" t="s" s="28">
+      <c r="A42" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s" s="11">
+        <v>84</v>
+      </c>
+      <c r="C42" s="12">
+        <v>30</v>
+      </c>
+      <c r="D42" s="12">
+        <v>642</v>
+      </c>
+      <c r="E42" s="12">
+        <v>43</v>
+      </c>
+      <c r="F42" s="13">
+        <v>235</v>
+      </c>
+      <c r="G42" s="44"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" ht="18" customHeight="1">
+      <c r="A43" t="s" s="18">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s" s="19">
         <v>86</v>
       </c>
-      <c r="B42" t="s" s="29">
-        <v>87</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12">
-        <v>826</v>
-      </c>
-      <c r="E42" s="12">
-        <v>138</v>
-      </c>
-      <c r="F42" s="13">
-        <v>114</v>
-      </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" ht="18" customHeight="1">
-      <c r="A43" t="s" s="28">
-        <v>88</v>
-      </c>
-      <c r="B43" t="s" s="29">
-        <v>89</v>
-      </c>
       <c r="C43" s="12">
-        <v>827</v>
+        <v>302</v>
       </c>
       <c r="D43" s="12">
-        <v>8891</v>
+        <v>2967</v>
       </c>
       <c r="E43" s="12">
-        <v>615</v>
+        <v>25</v>
       </c>
       <c r="F43" s="13">
-        <v>6997</v>
-      </c>
-      <c r="G43" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="G43" s="44"/>
       <c r="H43" s="7"/>
-      <c r="I43" s="8"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" t="s" s="28">
-        <v>90</v>
-      </c>
-      <c r="B44" t="s" s="29">
-        <v>91</v>
+      <c r="A44" t="s" s="36">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s" s="40">
+        <v>88</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12">
-        <v>829</v>
-      </c>
-      <c r="E44" s="12"/>
+        <v>4062</v>
+      </c>
+      <c r="E44" s="12">
+        <v>28</v>
+      </c>
       <c r="F44" s="13">
-        <v>11</v>
-      </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
+        <v>2324</v>
+      </c>
+      <c r="G44" s="44"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" t="s" s="28">
-        <v>92</v>
-      </c>
-      <c r="B45" t="s" s="29">
-        <v>93</v>
-      </c>
-      <c r="C45" s="12">
-        <v>584</v>
-      </c>
+      <c r="A45" t="s" s="36">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s" s="40">
+        <v>90</v>
+      </c>
+      <c r="C45" s="12"/>
       <c r="D45" s="12">
-        <v>1639</v>
+        <v>826</v>
       </c>
       <c r="E45" s="12">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="F45" s="13">
-        <v>1621</v>
-      </c>
-      <c r="G45" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="G45" s="44"/>
       <c r="H45" s="7"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" t="s" s="28">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s" s="29">
-        <v>95</v>
+      <c r="A46" t="s" s="36">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s" s="40">
+        <v>92</v>
       </c>
       <c r="C46" s="12">
-        <v>51</v>
+        <v>827</v>
       </c>
       <c r="D46" s="12">
-        <v>328</v>
+        <v>8891</v>
       </c>
       <c r="E46" s="12">
-        <v>15</v>
+        <v>615</v>
       </c>
       <c r="F46" s="13">
-        <v>22</v>
-      </c>
-      <c r="G46" s="23"/>
+        <v>6997</v>
+      </c>
+      <c r="G46" s="44"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" t="s" s="28">
+      <c r="A47" t="s" s="36">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s" s="40">
+        <v>94</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12">
+        <v>829</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13">
+        <v>11</v>
+      </c>
+      <c r="G47" s="44"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" ht="18" customHeight="1">
+      <c r="A48" t="s" s="36">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s" s="40">
         <v>96</v>
       </c>
-      <c r="B47" t="s" s="29">
-        <v>97</v>
-      </c>
-      <c r="C47" s="12">
-        <v>345</v>
-      </c>
-      <c r="D47" s="12">
-        <v>1310</v>
-      </c>
-      <c r="E47" s="12">
-        <v>60</v>
-      </c>
-      <c r="F47" s="13">
-        <v>345</v>
-      </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" ht="18" customHeight="1">
-      <c r="A48" t="s" s="21">
-        <v>98</v>
-      </c>
-      <c r="B48" t="s" s="22">
-        <v>99</v>
-      </c>
-      <c r="C48" s="25">
-        <v>0</v>
-      </c>
-      <c r="D48" s="25">
-        <v>169</v>
-      </c>
-      <c r="E48" s="25">
-        <v>0</v>
-      </c>
-      <c r="F48" s="26">
-        <v>115</v>
-      </c>
-      <c r="G48" s="27"/>
+      <c r="C48" s="12">
+        <v>584</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1639</v>
+      </c>
+      <c r="E48" s="12">
+        <v>215</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1621</v>
+      </c>
+      <c r="G48" s="44"/>
       <c r="H48" s="7"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="27"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
     <row r="49" ht="18" customHeight="1">
-      <c r="A49" t="s" s="21">
-        <v>100</v>
-      </c>
-      <c r="B49" t="s" s="22">
-        <v>101</v>
-      </c>
-      <c r="C49" s="25">
-        <v>0</v>
-      </c>
-      <c r="D49" s="25">
-        <v>150</v>
-      </c>
-      <c r="E49" s="25">
-        <v>0</v>
-      </c>
-      <c r="F49" s="26">
-        <v>89</v>
-      </c>
-      <c r="G49" s="30"/>
+      <c r="A49" t="s" s="36">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s" s="40">
+        <v>98</v>
+      </c>
+      <c r="C49" s="12">
+        <v>51</v>
+      </c>
+      <c r="D49" s="12">
+        <v>328</v>
+      </c>
+      <c r="E49" s="12">
+        <v>15</v>
+      </c>
+      <c r="F49" s="13">
+        <v>22</v>
+      </c>
+      <c r="G49" s="44"/>
       <c r="H49" s="7"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
     <row r="50" ht="18" customHeight="1">
-      <c r="A50" t="s" s="21">
-        <v>102</v>
-      </c>
-      <c r="B50" t="s" s="22">
-        <v>103</v>
-      </c>
-      <c r="C50" s="25">
-        <v>0</v>
-      </c>
-      <c r="D50" s="25">
-        <v>475</v>
-      </c>
-      <c r="E50" s="25">
-        <v>38</v>
-      </c>
-      <c r="F50" s="26">
-        <v>500</v>
-      </c>
-      <c r="G50" s="30"/>
+      <c r="A50" t="s" s="36">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s" s="40">
+        <v>100</v>
+      </c>
+      <c r="C50" s="12">
+        <v>345</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1310</v>
+      </c>
+      <c r="E50" s="12">
+        <v>60</v>
+      </c>
+      <c r="F50" s="13">
+        <v>345</v>
+      </c>
+      <c r="G50" s="44"/>
       <c r="H50" s="7"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3409,661 +3830,721 @@
     </row>
     <row r="51" ht="18" customHeight="1">
       <c r="A51" t="s" s="21">
-        <v>104</v>
-      </c>
-      <c r="B51" t="s" s="22">
-        <v>105</v>
-      </c>
-      <c r="C51" s="25">
-        <v>409</v>
-      </c>
-      <c r="D51" s="25">
-        <v>578</v>
-      </c>
-      <c r="E51" s="25">
-        <v>224</v>
-      </c>
-      <c r="F51" s="26">
-        <v>1807</v>
-      </c>
-      <c r="G51" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="B51" t="s" s="30">
+        <v>102</v>
+      </c>
+      <c r="C51" s="42">
+        <v>0</v>
+      </c>
+      <c r="D51" s="42">
+        <v>169</v>
+      </c>
+      <c r="E51" s="42">
+        <v>0</v>
+      </c>
+      <c r="F51" s="43">
+        <v>115</v>
+      </c>
+      <c r="G51" s="33"/>
       <c r="H51" s="7"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
     <row r="52" ht="18" customHeight="1">
-      <c r="A52" t="s" s="28">
-        <v>106</v>
-      </c>
-      <c r="B52" t="s" s="29">
-        <v>107</v>
-      </c>
-      <c r="C52" s="12">
-        <v>20</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12">
-        <v>20</v>
-      </c>
-      <c r="F52" s="13">
-        <v>40</v>
-      </c>
-      <c r="G52" s="23"/>
+      <c r="A52" t="s" s="21">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s" s="30">
+        <v>104</v>
+      </c>
+      <c r="C52" s="42">
+        <v>0</v>
+      </c>
+      <c r="D52" s="42">
+        <v>150</v>
+      </c>
+      <c r="E52" s="42">
+        <v>0</v>
+      </c>
+      <c r="F52" s="43">
+        <v>89</v>
+      </c>
+      <c r="G52" s="41"/>
       <c r="H52" s="7"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
     <row r="53" ht="18" customHeight="1">
-      <c r="A53" t="s" s="28">
-        <v>108</v>
-      </c>
-      <c r="B53" t="s" s="29">
-        <v>109</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12">
-        <v>15</v>
-      </c>
-      <c r="F53" s="13">
-        <v>269</v>
-      </c>
-      <c r="G53" s="23"/>
+      <c r="A53" t="s" s="21">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s" s="30">
+        <v>106</v>
+      </c>
+      <c r="C53" s="42">
+        <v>0</v>
+      </c>
+      <c r="D53" s="42">
+        <v>475</v>
+      </c>
+      <c r="E53" s="42">
+        <v>38</v>
+      </c>
+      <c r="F53" s="43">
+        <v>500</v>
+      </c>
+      <c r="G53" s="41"/>
       <c r="H53" s="7"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
     <row r="54" ht="18" customHeight="1">
-      <c r="A54" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="B54" t="s" s="11">
-        <v>111</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12">
-        <v>2011</v>
-      </c>
-      <c r="F54" s="13">
-        <v>21793</v>
-      </c>
-      <c r="G54" s="23"/>
+      <c r="A54" t="s" s="21">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s" s="30">
+        <v>108</v>
+      </c>
+      <c r="C54" s="42">
+        <v>409</v>
+      </c>
+      <c r="D54" s="42">
+        <v>578</v>
+      </c>
+      <c r="E54" s="42">
+        <v>224</v>
+      </c>
+      <c r="F54" s="43">
+        <v>1807</v>
+      </c>
+      <c r="G54" s="20"/>
       <c r="H54" s="7"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
     <row r="55" ht="18" customHeight="1">
-      <c r="A55" t="s" s="18">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s" s="19">
-        <v>113</v>
+      <c r="A55" t="s" s="36">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s" s="40">
+        <v>110</v>
       </c>
       <c r="C55" s="12">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12">
-        <v>10</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="F55" s="13">
+        <v>40</v>
+      </c>
+      <c r="G55" s="44"/>
       <c r="H55" s="7"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
     </row>
     <row r="56" ht="18" customHeight="1">
-      <c r="A56" t="s" s="28">
-        <v>114</v>
-      </c>
-      <c r="B56" t="s" s="29">
-        <v>115</v>
-      </c>
-      <c r="C56" s="12">
-        <v>105</v>
-      </c>
-      <c r="D56" s="12">
-        <v>69</v>
-      </c>
-      <c r="E56" s="12"/>
+      <c r="A56" t="s" s="36">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s" s="40">
+        <v>112</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12">
+        <v>15</v>
+      </c>
       <c r="F56" s="13">
-        <v>15</v>
-      </c>
-      <c r="G56" s="23"/>
+        <v>269</v>
+      </c>
+      <c r="G56" s="44"/>
       <c r="H56" s="7"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
     </row>
     <row r="57" ht="18" customHeight="1">
-      <c r="A57" t="s" s="28">
-        <v>116</v>
-      </c>
-      <c r="B57" t="s" s="29">
-        <v>117</v>
+      <c r="A57" t="s" s="10">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s" s="11">
+        <v>114</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="23"/>
+      <c r="E57" s="12">
+        <v>2011</v>
+      </c>
+      <c r="F57" s="13">
+        <v>21793</v>
+      </c>
+      <c r="G57" s="44"/>
       <c r="H57" s="7"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
     </row>
     <row r="58" ht="18" customHeight="1">
-      <c r="A58" t="s" s="28">
-        <v>118</v>
-      </c>
-      <c r="B58" t="s" s="29">
-        <v>119</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12">
-        <v>357</v>
-      </c>
+      <c r="A58" t="s" s="18">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s" s="19">
+        <v>116</v>
+      </c>
+      <c r="C58" s="12">
+        <v>6</v>
+      </c>
+      <c r="D58" s="12"/>
       <c r="E58" s="12">
-        <v>4</v>
-      </c>
-      <c r="F58" s="13">
-        <v>272</v>
-      </c>
-      <c r="G58" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="44"/>
       <c r="H58" s="7"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
     </row>
     <row r="59" ht="18" customHeight="1">
-      <c r="A59" t="s" s="28">
-        <v>120</v>
-      </c>
-      <c r="B59" t="s" s="29">
-        <v>121</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="7"/>
+      <c r="A59" t="s" s="36">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s" s="37">
+        <v>118</v>
+      </c>
+      <c r="C59" s="23">
+        <v>102.052631578947</v>
+      </c>
+      <c r="D59" s="23">
+        <v>67.0631578947368</v>
+      </c>
+      <c r="E59" s="23">
+        <v>0</v>
+      </c>
+      <c r="F59" s="24">
+        <v>14.5789473684211</v>
+      </c>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
     </row>
     <row r="60" ht="18" customHeight="1">
-      <c r="A60" t="s" s="28">
-        <v>122</v>
-      </c>
-      <c r="B60" t="s" s="29">
-        <v>123</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="7"/>
+      <c r="A60" t="s" s="36">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s" s="37">
+        <v>120</v>
+      </c>
+      <c r="C60" s="23">
+        <v>2.94736842105263</v>
+      </c>
+      <c r="D60" s="23">
+        <v>1.93684210526316</v>
+      </c>
+      <c r="E60" s="23">
+        <v>0</v>
+      </c>
+      <c r="F60" s="24">
+        <v>0.421052631578947</v>
+      </c>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
     </row>
     <row r="61" ht="18" customHeight="1">
-      <c r="A61" t="s" s="21">
-        <v>124</v>
-      </c>
-      <c r="B61" t="s" s="22">
-        <v>125</v>
-      </c>
-      <c r="C61" s="25">
-        <v>0</v>
-      </c>
-      <c r="D61" s="25">
-        <v>0</v>
-      </c>
-      <c r="E61" s="25">
-        <v>0</v>
-      </c>
-      <c r="F61" s="26">
-        <v>0</v>
-      </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="7"/>
+      <c r="A61" t="s" s="36">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s" s="37">
+        <v>122</v>
+      </c>
+      <c r="C61" s="23">
+        <v>0</v>
+      </c>
+      <c r="D61" s="23">
+        <v>124.564748201439</v>
+      </c>
+      <c r="E61" s="23">
+        <v>1.39568345323741</v>
+      </c>
+      <c r="F61" s="24">
+        <v>94.9064748201439</v>
+      </c>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
     </row>
     <row r="62" ht="18" customHeight="1">
-      <c r="A62" t="s" s="21">
-        <v>126</v>
-      </c>
-      <c r="B62" t="s" s="22">
-        <v>127</v>
-      </c>
-      <c r="C62" s="25">
-        <v>25</v>
-      </c>
-      <c r="D62" s="25">
-        <v>303</v>
-      </c>
-      <c r="E62" s="25">
-        <v>36</v>
-      </c>
-      <c r="F62" s="26">
-        <v>204</v>
-      </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="7"/>
+      <c r="A62" t="s" s="36">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s" s="37">
+        <v>124</v>
+      </c>
+      <c r="C62" s="23">
+        <v>0</v>
+      </c>
+      <c r="D62" s="23">
+        <v>210.604316546763</v>
+      </c>
+      <c r="E62" s="23">
+        <v>2.35971223021583</v>
+      </c>
+      <c r="F62" s="24">
+        <v>160.460431654676</v>
+      </c>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
     </row>
     <row r="63" ht="18" customHeight="1">
-      <c r="A63" t="s" s="21">
-        <v>128</v>
-      </c>
-      <c r="B63" t="s" s="22">
-        <v>129</v>
-      </c>
-      <c r="C63" s="25">
-        <v>10</v>
-      </c>
-      <c r="D63" s="25">
-        <v>40</v>
-      </c>
-      <c r="E63" s="25">
-        <v>10</v>
-      </c>
-      <c r="F63" s="26">
-        <v>40</v>
-      </c>
-      <c r="G63" s="20"/>
-      <c r="H63" s="7"/>
+      <c r="A63" t="s" s="36">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s" s="37">
+        <v>126</v>
+      </c>
+      <c r="C63" s="23">
+        <v>0</v>
+      </c>
+      <c r="D63" s="23">
+        <v>21.8309352517986</v>
+      </c>
+      <c r="E63" s="23">
+        <v>0.244604316546763</v>
+      </c>
+      <c r="F63" s="24">
+        <v>16.6330935251799</v>
+      </c>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
     </row>
     <row r="64" ht="18" customHeight="1">
-      <c r="A64" t="s" s="28">
-        <v>130</v>
-      </c>
-      <c r="B64" t="s" s="29">
-        <v>131</v>
-      </c>
-      <c r="C64" s="12">
-        <v>12</v>
-      </c>
-      <c r="D64" s="12">
-        <v>440</v>
-      </c>
-      <c r="E64" s="12">
-        <v>6</v>
-      </c>
-      <c r="F64" s="13">
-        <v>213</v>
-      </c>
-      <c r="G64" s="23"/>
+      <c r="A64" t="s" s="21">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s" s="30">
+        <v>128</v>
+      </c>
+      <c r="C64" s="42">
+        <v>0</v>
+      </c>
+      <c r="D64" s="42">
+        <v>0</v>
+      </c>
+      <c r="E64" s="42">
+        <v>0</v>
+      </c>
+      <c r="F64" s="43">
+        <v>0</v>
+      </c>
+      <c r="G64" s="33"/>
       <c r="H64" s="7"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
     <row r="65" ht="18" customHeight="1">
-      <c r="A65" t="s" s="10">
-        <v>132</v>
-      </c>
-      <c r="B65" t="s" s="11">
-        <v>133</v>
-      </c>
-      <c r="C65" s="12">
-        <v>112</v>
-      </c>
-      <c r="D65" s="12">
-        <v>1161</v>
-      </c>
-      <c r="E65" s="12">
-        <v>12</v>
-      </c>
-      <c r="F65" s="13">
-        <v>415</v>
-      </c>
-      <c r="G65" s="23"/>
+      <c r="A65" t="s" s="21">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s" s="30">
+        <v>130</v>
+      </c>
+      <c r="C65" s="42">
+        <v>25</v>
+      </c>
+      <c r="D65" s="42">
+        <v>303</v>
+      </c>
+      <c r="E65" s="42">
+        <v>36</v>
+      </c>
+      <c r="F65" s="43">
+        <v>204</v>
+      </c>
+      <c r="G65" s="41"/>
       <c r="H65" s="7"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
     </row>
     <row r="66" ht="18" customHeight="1">
-      <c r="A66" t="s" s="31">
-        <v>134</v>
-      </c>
-      <c r="B66" t="s" s="32">
-        <v>135</v>
-      </c>
-      <c r="C66" s="12">
-        <v>100</v>
-      </c>
-      <c r="D66" s="12">
-        <v>592</v>
-      </c>
-      <c r="E66" s="12">
-        <v>148</v>
-      </c>
-      <c r="F66" s="13">
-        <v>298</v>
-      </c>
-      <c r="G66" s="23"/>
+      <c r="A66" t="s" s="21">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s" s="30">
+        <v>132</v>
+      </c>
+      <c r="C66" s="42">
+        <v>10</v>
+      </c>
+      <c r="D66" s="42">
+        <v>40</v>
+      </c>
+      <c r="E66" s="42">
+        <v>10</v>
+      </c>
+      <c r="F66" s="43">
+        <v>40</v>
+      </c>
+      <c r="G66" s="20"/>
       <c r="H66" s="7"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
     </row>
     <row r="67" ht="18" customHeight="1">
-      <c r="A67" t="s" s="31">
-        <v>136</v>
-      </c>
-      <c r="B67" t="s" s="32">
-        <v>137</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="23"/>
+      <c r="A67" t="s" s="36">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s" s="40">
+        <v>134</v>
+      </c>
+      <c r="C67" s="12">
+        <v>12</v>
+      </c>
+      <c r="D67" s="12">
+        <v>440</v>
+      </c>
+      <c r="E67" s="12">
+        <v>6</v>
+      </c>
+      <c r="F67" s="13">
+        <v>213</v>
+      </c>
+      <c r="G67" s="44"/>
       <c r="H67" s="7"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
     </row>
     <row r="68" ht="18" customHeight="1">
-      <c r="A68" t="s" s="31">
-        <v>138</v>
-      </c>
-      <c r="B68" t="s" s="32">
-        <v>139</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="23"/>
+      <c r="A68" t="s" s="10">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s" s="11">
+        <v>136</v>
+      </c>
+      <c r="C68" s="12">
+        <v>112</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1161</v>
+      </c>
+      <c r="E68" s="12">
+        <v>12</v>
+      </c>
+      <c r="F68" s="13">
+        <v>415</v>
+      </c>
+      <c r="G68" s="44"/>
       <c r="H68" s="7"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
     </row>
     <row r="69" ht="18" customHeight="1">
-      <c r="A69" t="s" s="31">
-        <v>140</v>
-      </c>
-      <c r="B69" t="s" s="32">
-        <v>141</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="7"/>
+      <c r="A69" t="s" s="45">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s" s="46">
+        <v>138</v>
+      </c>
+      <c r="C69" s="23">
+        <v>40.4878048780488</v>
+      </c>
+      <c r="D69" s="23">
+        <v>239.687804878049</v>
+      </c>
+      <c r="E69" s="23">
+        <v>59.9219512195122</v>
+      </c>
+      <c r="F69" s="24">
+        <v>120.653658536585</v>
+      </c>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
     </row>
     <row r="70" ht="18" customHeight="1">
-      <c r="A70" t="s" s="18">
-        <v>142</v>
-      </c>
-      <c r="B70" t="s" s="19">
-        <v>143</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="7"/>
+      <c r="A70" t="s" s="45">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s" s="46">
+        <v>140</v>
+      </c>
+      <c r="C70" s="23">
+        <v>14.390243902439</v>
+      </c>
+      <c r="D70" s="23">
+        <v>85.19024390243899</v>
+      </c>
+      <c r="E70" s="23">
+        <v>21.2975609756098</v>
+      </c>
+      <c r="F70" s="24">
+        <v>42.8829268292683</v>
+      </c>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
     </row>
     <row r="71" ht="18" customHeight="1">
-      <c r="A71" t="s" s="28">
-        <v>144</v>
-      </c>
-      <c r="B71" t="s" s="29">
-        <v>145</v>
-      </c>
-      <c r="C71" s="12">
-        <v>93</v>
-      </c>
-      <c r="D71" s="12">
-        <v>100</v>
-      </c>
-      <c r="E71" s="12">
-        <v>93</v>
-      </c>
-      <c r="F71" s="13">
-        <v>518</v>
-      </c>
-      <c r="G71" s="23"/>
-      <c r="H71" s="7"/>
+      <c r="A71" t="s" s="45">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s" s="46">
+        <v>142</v>
+      </c>
+      <c r="C71" s="23">
+        <v>18.5365853658537</v>
+      </c>
+      <c r="D71" s="23">
+        <v>109.736585365854</v>
+      </c>
+      <c r="E71" s="23">
+        <v>27.4341463414634</v>
+      </c>
+      <c r="F71" s="24">
+        <v>55.2390243902439</v>
+      </c>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
     </row>
     <row r="72" ht="18" customHeight="1">
-      <c r="A72" t="s" s="28">
-        <v>146</v>
-      </c>
-      <c r="B72" t="s" s="29">
-        <v>147</v>
-      </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12">
-        <v>789</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="13">
-        <v>64</v>
-      </c>
-      <c r="G72" s="23"/>
-      <c r="H72" s="7"/>
+      <c r="A72" t="s" s="45">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s" s="46">
+        <v>144</v>
+      </c>
+      <c r="C72" s="23">
+        <v>11.9512195121951</v>
+      </c>
+      <c r="D72" s="23">
+        <v>70.75121951219511</v>
+      </c>
+      <c r="E72" s="23">
+        <v>17.6878048780488</v>
+      </c>
+      <c r="F72" s="24">
+        <v>35.6146341463415</v>
+      </c>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
     </row>
     <row r="73" ht="18" customHeight="1">
-      <c r="A73" t="s" s="21">
-        <v>148</v>
-      </c>
-      <c r="B73" t="s" s="22">
-        <v>149</v>
-      </c>
-      <c r="C73" s="25">
-        <v>20</v>
-      </c>
-      <c r="D73" s="25">
-        <v>80</v>
-      </c>
-      <c r="E73" s="25">
-        <v>0</v>
-      </c>
-      <c r="F73" s="26">
-        <v>74</v>
-      </c>
-      <c r="G73" s="27"/>
-      <c r="H73" s="7"/>
+      <c r="A73" t="s" s="18">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s" s="47">
+        <v>146</v>
+      </c>
+      <c r="C73" s="23">
+        <v>14.6341463414634</v>
+      </c>
+      <c r="D73" s="23">
+        <v>86.63414634146341</v>
+      </c>
+      <c r="E73" s="23">
+        <v>21.6585365853659</v>
+      </c>
+      <c r="F73" s="24">
+        <v>43.609756097561</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
     </row>
     <row r="74" ht="18" customHeight="1">
-      <c r="A74" t="s" s="21">
-        <v>150</v>
-      </c>
-      <c r="B74" t="s" s="22">
-        <v>151</v>
-      </c>
-      <c r="C74" s="25">
-        <v>158</v>
-      </c>
-      <c r="D74" s="25">
-        <v>190</v>
-      </c>
-      <c r="E74" s="25">
-        <v>0</v>
-      </c>
-      <c r="F74" s="26">
-        <v>363</v>
-      </c>
-      <c r="G74" s="20"/>
+      <c r="A74" t="s" s="36">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s" s="40">
+        <v>148</v>
+      </c>
+      <c r="C74" s="12">
+        <v>93</v>
+      </c>
+      <c r="D74" s="12">
+        <v>100</v>
+      </c>
+      <c r="E74" s="12">
+        <v>93</v>
+      </c>
+      <c r="F74" s="13">
+        <v>518</v>
+      </c>
+      <c r="G74" s="44"/>
       <c r="H74" s="7"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
     </row>
     <row r="75" ht="18" customHeight="1">
-      <c r="A75" t="s" s="28">
-        <v>152</v>
-      </c>
-      <c r="B75" t="s" s="29">
-        <v>153</v>
-      </c>
-      <c r="C75" s="12">
-        <v>1671</v>
-      </c>
+      <c r="A75" t="s" s="36">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s" s="40">
+        <v>150</v>
+      </c>
+      <c r="C75" s="12"/>
       <c r="D75" s="12">
-        <v>1813</v>
+        <v>789</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="13">
-        <v>961</v>
-      </c>
-      <c r="G75" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="G75" s="44"/>
       <c r="H75" s="7"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
     </row>
     <row r="76" ht="18" customHeight="1">
-      <c r="A76" t="s" s="28">
-        <v>154</v>
-      </c>
-      <c r="B76" t="s" s="29">
-        <v>155</v>
-      </c>
-      <c r="C76" s="12">
+      <c r="A76" t="s" s="21">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s" s="30">
+        <v>152</v>
+      </c>
+      <c r="C76" s="42">
         <v>20</v>
       </c>
-      <c r="D76" s="12">
-        <v>196</v>
-      </c>
-      <c r="E76" s="12">
-        <v>2</v>
-      </c>
-      <c r="F76" s="13">
-        <v>46</v>
-      </c>
-      <c r="G76" s="23"/>
+      <c r="D76" s="42">
+        <v>80</v>
+      </c>
+      <c r="E76" s="42">
+        <v>0</v>
+      </c>
+      <c r="F76" s="43">
+        <v>74</v>
+      </c>
+      <c r="G76" s="33"/>
       <c r="H76" s="7"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
     </row>
     <row r="77" ht="18" customHeight="1">
-      <c r="A77" t="s" s="28">
-        <v>156</v>
-      </c>
-      <c r="B77" t="s" s="29">
-        <v>157</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="23"/>
+      <c r="A77" t="s" s="21">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s" s="30">
+        <v>154</v>
+      </c>
+      <c r="C77" s="42">
+        <v>158</v>
+      </c>
+      <c r="D77" s="42">
+        <v>190</v>
+      </c>
+      <c r="E77" s="42">
+        <v>0</v>
+      </c>
+      <c r="F77" s="43">
+        <v>363</v>
+      </c>
+      <c r="G77" s="20"/>
       <c r="H77" s="7"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
     </row>
     <row r="78" ht="18" customHeight="1">
-      <c r="A78" t="s" s="21">
-        <v>158</v>
-      </c>
-      <c r="B78" t="s" s="22">
-        <v>159</v>
-      </c>
-      <c r="C78" s="25">
-        <v>0</v>
-      </c>
-      <c r="D78" s="25">
-        <v>0</v>
-      </c>
-      <c r="E78" s="25">
-        <v>0</v>
-      </c>
-      <c r="F78" s="26">
-        <v>0</v>
-      </c>
-      <c r="G78" s="27"/>
+      <c r="A78" t="s" s="36">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s" s="40">
+        <v>156</v>
+      </c>
+      <c r="C78" s="12">
+        <v>1671</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1813</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="13">
+        <v>961</v>
+      </c>
+      <c r="G78" s="44"/>
       <c r="H78" s="7"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
     </row>
     <row r="79" ht="18" customHeight="1">
-      <c r="A79" t="s" s="21">
-        <v>160</v>
-      </c>
-      <c r="B79" t="s" s="22">
-        <v>161</v>
-      </c>
-      <c r="C79" s="25">
-        <v>0</v>
-      </c>
-      <c r="D79" s="25">
-        <v>0</v>
-      </c>
-      <c r="E79" s="25">
-        <v>0</v>
-      </c>
-      <c r="F79" s="26">
-        <v>0</v>
-      </c>
-      <c r="G79" s="30"/>
+      <c r="A79" t="s" s="36">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s" s="40">
+        <v>158</v>
+      </c>
+      <c r="C79" s="12">
+        <v>20</v>
+      </c>
+      <c r="D79" s="12">
+        <v>196</v>
+      </c>
+      <c r="E79" s="12">
+        <v>2</v>
+      </c>
+      <c r="F79" s="13">
+        <v>46</v>
+      </c>
+      <c r="G79" s="44"/>
       <c r="H79" s="7"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
     </row>
     <row r="80" ht="18" customHeight="1">
-      <c r="A80" t="s" s="21">
-        <v>162</v>
-      </c>
-      <c r="B80" t="s" s="22">
-        <v>163</v>
-      </c>
-      <c r="C80" s="25">
-        <v>12</v>
-      </c>
-      <c r="D80" s="25">
-        <v>377</v>
-      </c>
-      <c r="E80" s="25">
-        <v>0</v>
-      </c>
-      <c r="F80" s="26">
-        <v>89</v>
-      </c>
-      <c r="G80" s="30"/>
+      <c r="A80" t="s" s="36">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s" s="40">
+        <v>160</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="44"/>
       <c r="H80" s="7"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4071,24 +4552,24 @@
     </row>
     <row r="81" ht="18" customHeight="1">
       <c r="A81" t="s" s="21">
-        <v>164</v>
-      </c>
-      <c r="B81" t="s" s="22">
-        <v>165</v>
-      </c>
-      <c r="C81" s="25">
-        <v>0</v>
-      </c>
-      <c r="D81" s="25">
-        <v>0</v>
-      </c>
-      <c r="E81" s="25">
-        <v>0</v>
-      </c>
-      <c r="F81" s="26">
-        <v>0</v>
-      </c>
-      <c r="G81" s="30"/>
+        <v>161</v>
+      </c>
+      <c r="B81" t="s" s="30">
+        <v>162</v>
+      </c>
+      <c r="C81" s="42">
+        <v>0</v>
+      </c>
+      <c r="D81" s="42">
+        <v>0</v>
+      </c>
+      <c r="E81" s="42">
+        <v>0</v>
+      </c>
+      <c r="F81" s="43">
+        <v>0</v>
+      </c>
+      <c r="G81" s="33"/>
       <c r="H81" s="7"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4096,24 +4577,24 @@
     </row>
     <row r="82" ht="18" customHeight="1">
       <c r="A82" t="s" s="21">
-        <v>166</v>
-      </c>
-      <c r="B82" t="s" s="22">
-        <v>167</v>
-      </c>
-      <c r="C82" s="25">
-        <v>80</v>
-      </c>
-      <c r="D82" s="25">
-        <v>0</v>
-      </c>
-      <c r="E82" s="25">
-        <v>0</v>
-      </c>
-      <c r="F82" s="26">
-        <v>0</v>
-      </c>
-      <c r="G82" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="B82" t="s" s="30">
+        <v>164</v>
+      </c>
+      <c r="C82" s="42">
+        <v>0</v>
+      </c>
+      <c r="D82" s="42">
+        <v>0</v>
+      </c>
+      <c r="E82" s="42">
+        <v>0</v>
+      </c>
+      <c r="F82" s="43">
+        <v>0</v>
+      </c>
+      <c r="G82" s="41"/>
       <c r="H82" s="7"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4121,24 +4602,24 @@
     </row>
     <row r="83" ht="18" customHeight="1">
       <c r="A83" t="s" s="21">
-        <v>168</v>
-      </c>
-      <c r="B83" t="s" s="22">
-        <v>169</v>
-      </c>
-      <c r="C83" s="25">
-        <v>0</v>
-      </c>
-      <c r="D83" s="25">
-        <v>668</v>
-      </c>
-      <c r="E83" s="25">
-        <v>0</v>
-      </c>
-      <c r="F83" s="26">
-        <v>0</v>
-      </c>
-      <c r="G83" s="30"/>
+        <v>165</v>
+      </c>
+      <c r="B83" t="s" s="30">
+        <v>166</v>
+      </c>
+      <c r="C83" s="48">
+        <v>12</v>
+      </c>
+      <c r="D83" s="48">
+        <v>377</v>
+      </c>
+      <c r="E83" s="48">
+        <v>0</v>
+      </c>
+      <c r="F83" s="49">
+        <v>89</v>
+      </c>
+      <c r="G83" s="41"/>
       <c r="H83" s="7"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4146,235 +4627,310 @@
     </row>
     <row r="84" ht="18" customHeight="1">
       <c r="A84" t="s" s="21">
-        <v>170</v>
-      </c>
-      <c r="B84" t="s" s="22">
-        <v>171</v>
-      </c>
-      <c r="C84" s="25">
-        <v>4</v>
-      </c>
-      <c r="D84" s="25">
-        <v>163</v>
-      </c>
-      <c r="E84" s="25">
-        <v>0</v>
-      </c>
-      <c r="F84" s="26">
-        <v>30</v>
-      </c>
-      <c r="G84" s="20"/>
+        <v>167</v>
+      </c>
+      <c r="B84" t="s" s="30">
+        <v>168</v>
+      </c>
+      <c r="C84" s="50">
+        <v>0</v>
+      </c>
+      <c r="D84" s="50">
+        <v>0</v>
+      </c>
+      <c r="E84" s="50">
+        <v>0</v>
+      </c>
+      <c r="F84" s="51">
+        <v>0</v>
+      </c>
+      <c r="G84" s="41"/>
       <c r="H84" s="7"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
     </row>
     <row r="85" ht="18" customHeight="1">
-      <c r="A85" t="s" s="10">
-        <v>172</v>
-      </c>
-      <c r="B85" t="s" s="11">
-        <v>173</v>
-      </c>
-      <c r="C85" s="12">
-        <v>260</v>
-      </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12">
-        <v>65</v>
-      </c>
-      <c r="F85" s="13">
-        <v>1643</v>
-      </c>
-      <c r="G85" s="23"/>
+      <c r="A85" t="s" s="21">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s" s="30">
+        <v>170</v>
+      </c>
+      <c r="C85" s="42">
+        <v>80</v>
+      </c>
+      <c r="D85" s="42">
+        <v>0</v>
+      </c>
+      <c r="E85" s="42">
+        <v>0</v>
+      </c>
+      <c r="F85" s="43">
+        <v>0</v>
+      </c>
+      <c r="G85" s="41"/>
       <c r="H85" s="7"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
     </row>
     <row r="86" ht="18" customHeight="1">
-      <c r="A86" t="s" s="18">
-        <v>174</v>
-      </c>
-      <c r="B86" t="s" s="19">
-        <v>175</v>
-      </c>
-      <c r="C86" s="12">
-        <v>188</v>
-      </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12">
-        <v>33</v>
-      </c>
-      <c r="F86" s="13">
-        <v>279</v>
-      </c>
-      <c r="G86" s="23"/>
+      <c r="A86" t="s" s="21">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s" s="30">
+        <v>172</v>
+      </c>
+      <c r="C86" s="48">
+        <v>0</v>
+      </c>
+      <c r="D86" s="48">
+        <v>668</v>
+      </c>
+      <c r="E86" s="48">
+        <v>0</v>
+      </c>
+      <c r="F86" s="49">
+        <v>0</v>
+      </c>
+      <c r="G86" s="41"/>
       <c r="H86" s="7"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
     </row>
     <row r="87" ht="18" customHeight="1">
-      <c r="A87" t="s" s="28">
-        <v>176</v>
-      </c>
-      <c r="B87" t="s" s="29">
-        <v>177</v>
-      </c>
-      <c r="C87" s="12">
-        <v>10</v>
-      </c>
-      <c r="D87" s="12">
-        <v>50</v>
-      </c>
-      <c r="E87" s="12">
-        <v>20</v>
-      </c>
-      <c r="F87" s="13">
-        <v>110</v>
-      </c>
-      <c r="G87" s="23"/>
+      <c r="A87" t="s" s="21">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s" s="30">
+        <v>174</v>
+      </c>
+      <c r="C87" s="52">
+        <v>4</v>
+      </c>
+      <c r="D87" s="52">
+        <v>163</v>
+      </c>
+      <c r="E87" s="52">
+        <v>0</v>
+      </c>
+      <c r="F87" s="53">
+        <v>30</v>
+      </c>
+      <c r="G87" s="20"/>
       <c r="H87" s="7"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
     </row>
     <row r="88" ht="18" customHeight="1">
-      <c r="A88" t="s" s="21">
-        <v>178</v>
-      </c>
-      <c r="B88" t="s" s="22">
-        <v>179</v>
-      </c>
-      <c r="C88" s="25">
-        <v>16</v>
-      </c>
-      <c r="D88" s="25">
-        <v>0</v>
-      </c>
-      <c r="E88" s="25">
-        <v>4</v>
-      </c>
-      <c r="F88" s="26">
-        <v>231</v>
-      </c>
-      <c r="G88" s="27"/>
+      <c r="A88" t="s" s="10">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s" s="11">
+        <v>176</v>
+      </c>
+      <c r="C88" s="54">
+        <v>260</v>
+      </c>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54">
+        <v>65</v>
+      </c>
+      <c r="F88" s="55">
+        <v>1643</v>
+      </c>
+      <c r="G88" s="44"/>
       <c r="H88" s="7"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
     </row>
     <row r="89" ht="18" customHeight="1">
-      <c r="A89" t="s" s="21">
-        <v>180</v>
-      </c>
-      <c r="B89" t="s" s="22">
-        <v>181</v>
-      </c>
-      <c r="C89" s="25">
-        <v>36</v>
-      </c>
-      <c r="D89" s="25">
-        <v>50</v>
-      </c>
-      <c r="E89" s="25">
-        <v>20</v>
-      </c>
-      <c r="F89" s="26">
-        <v>143</v>
-      </c>
-      <c r="G89" s="30"/>
+      <c r="A89" t="s" s="18">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s" s="19">
+        <v>178</v>
+      </c>
+      <c r="C89" s="12">
+        <v>188</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12">
+        <v>33</v>
+      </c>
+      <c r="F89" s="13">
+        <v>279</v>
+      </c>
+      <c r="G89" s="44"/>
       <c r="H89" s="7"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
     </row>
     <row r="90" ht="18" customHeight="1">
-      <c r="A90" t="s" s="33">
-        <v>182</v>
-      </c>
-      <c r="B90" t="s" s="34">
-        <v>183</v>
-      </c>
-      <c r="C90" s="25">
-        <v>6</v>
-      </c>
-      <c r="D90" s="25">
+      <c r="A90" t="s" s="36">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s" s="40">
+        <v>180</v>
+      </c>
+      <c r="C90" s="12">
+        <v>10</v>
+      </c>
+      <c r="D90" s="12">
+        <v>50</v>
+      </c>
+      <c r="E90" s="12">
         <v>20</v>
       </c>
-      <c r="E90" s="25">
-        <v>0</v>
-      </c>
-      <c r="F90" s="26">
-        <v>46</v>
-      </c>
-      <c r="G90" s="20"/>
+      <c r="F90" s="13">
+        <v>110</v>
+      </c>
+      <c r="G90" s="44"/>
       <c r="H90" s="7"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
     </row>
     <row r="91" ht="18" customHeight="1">
-      <c r="A91" t="s" s="31">
-        <v>184</v>
-      </c>
-      <c r="B91" t="s" s="32">
-        <v>185</v>
-      </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12">
-        <v>600</v>
-      </c>
-      <c r="E91" s="12"/>
-      <c r="F91" s="13">
-        <v>200</v>
-      </c>
-      <c r="G91" s="23"/>
+      <c r="A91" t="s" s="21">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s" s="30">
+        <v>182</v>
+      </c>
+      <c r="C91" s="42">
+        <v>16</v>
+      </c>
+      <c r="D91" s="42">
+        <v>0</v>
+      </c>
+      <c r="E91" s="42">
+        <v>4</v>
+      </c>
+      <c r="F91" s="43">
+        <v>231</v>
+      </c>
+      <c r="G91" s="33"/>
       <c r="H91" s="7"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
     </row>
     <row r="92" ht="18" customHeight="1">
-      <c r="A92" t="s" s="35">
-        <v>186</v>
-      </c>
-      <c r="B92" t="s" s="36">
-        <v>187</v>
-      </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="37"/>
+      <c r="A92" t="s" s="21">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s" s="30">
+        <v>184</v>
+      </c>
+      <c r="C92" s="42">
+        <v>36</v>
+      </c>
+      <c r="D92" s="42">
+        <v>50</v>
+      </c>
+      <c r="E92" s="42">
+        <v>20</v>
+      </c>
+      <c r="F92" s="43">
+        <v>143</v>
+      </c>
+      <c r="G92" s="41"/>
       <c r="H92" s="7"/>
-      <c r="I92" s="8"/>
+      <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
     </row>
     <row r="93" ht="18" customHeight="1">
-      <c r="A93" t="s" s="38">
-        <v>184</v>
-      </c>
-      <c r="B93" t="s" s="39">
+      <c r="A93" t="s" s="56">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s" s="57">
+        <v>186</v>
+      </c>
+      <c r="C93" s="42">
+        <v>6</v>
+      </c>
+      <c r="D93" s="42">
+        <v>20</v>
+      </c>
+      <c r="E93" s="42">
+        <v>0</v>
+      </c>
+      <c r="F93" s="43">
+        <v>46</v>
+      </c>
+      <c r="G93" s="20"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" ht="18" customHeight="1">
+      <c r="A94" t="s" s="45">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s" s="58">
         <v>188</v>
       </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40">
+      <c r="C94" s="12"/>
+      <c r="D94" s="12">
+        <v>600</v>
+      </c>
+      <c r="E94" s="12"/>
+      <c r="F94" s="13">
+        <v>200</v>
+      </c>
+      <c r="G94" s="44"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+    </row>
+    <row r="95" ht="18" customHeight="1">
+      <c r="A95" t="s" s="59">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s" s="60">
+        <v>190</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" ht="18" customHeight="1">
+      <c r="A96" t="s" s="62">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s" s="63">
+        <v>191</v>
+      </c>
+      <c r="C96" s="64"/>
+      <c r="D96" s="64">
         <v>5200</v>
       </c>
-      <c r="E93" s="40">
+      <c r="E96" s="64">
         <v>50</v>
       </c>
-      <c r="F93" s="41">
+      <c r="F96" s="65">
         <v>24</v>
       </c>
-      <c r="G93" s="14"/>
-      <c r="H93" s="15"/>
-      <c r="I93" s="42"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="9"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/upload_seed_data/data/domain_goal/domain_target.xlsx
+++ b/upload_seed_data/data/domain_goal/domain_target.xlsx
@@ -674,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1260,6 +1260,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="8"/>
@@ -1345,7 +1386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1523,11 +1564,11 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
@@ -1544,7 +1585,22 @@
     <xf numFmtId="59" fontId="5" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4856,13 +4912,13 @@
       <c r="C93" s="42">
         <v>6</v>
       </c>
-      <c r="D93" s="42">
+      <c r="D93" s="48">
         <v>20</v>
       </c>
-      <c r="E93" s="42">
-        <v>0</v>
-      </c>
-      <c r="F93" s="43">
+      <c r="E93" s="48">
+        <v>0</v>
+      </c>
+      <c r="F93" s="49">
         <v>46</v>
       </c>
       <c r="G93" s="20"/>
@@ -4878,57 +4934,57 @@
       <c r="B94" t="s" s="58">
         <v>188</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12">
-        <v>600</v>
-      </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="13">
-        <v>200</v>
-      </c>
-      <c r="G94" s="44"/>
-      <c r="H94" s="7"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="9"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
     </row>
     <row r="95" ht="18" customHeight="1">
-      <c r="A95" t="s" s="59">
+      <c r="A95" t="s" s="62">
         <v>189</v>
       </c>
-      <c r="B95" t="s" s="60">
+      <c r="B95" t="s" s="63">
         <v>190</v>
       </c>
       <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="61"/>
+      <c r="D95" s="64">
+        <v>600</v>
+      </c>
+      <c r="E95" s="64"/>
+      <c r="F95" s="65">
+        <v>200</v>
+      </c>
+      <c r="G95" s="66"/>
       <c r="H95" s="7"/>
       <c r="I95" s="8"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
     <row r="96" ht="18" customHeight="1">
-      <c r="A96" t="s" s="62">
+      <c r="A96" t="s" s="67">
         <v>187</v>
       </c>
-      <c r="B96" t="s" s="63">
+      <c r="B96" t="s" s="68">
         <v>191</v>
       </c>
       <c r="C96" s="64"/>
-      <c r="D96" s="64">
+      <c r="D96" s="69">
         <v>5200</v>
       </c>
-      <c r="E96" s="64">
+      <c r="E96" s="69">
         <v>50</v>
       </c>
-      <c r="F96" s="65">
+      <c r="F96" s="70">
         <v>24</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
-      <c r="I96" s="66"/>
+      <c r="I96" s="71"/>
       <c r="J96" s="17"/>
       <c r="K96" s="9"/>
     </row>

--- a/upload_seed_data/data/domain_goal/domain_target.xlsx
+++ b/upload_seed_data/data/domain_goal/domain_target.xlsx
@@ -586,7 +586,23 @@
     <t>NAT_2710</t>
   </si>
   <si>
-    <t>NAT_23961</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="19"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t>NAT_2392</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="20"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -597,7 +613,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="&quot; &quot;* #,##0&quot; &quot;;&quot;-&quot;* #,##0&quot; &quot;;&quot; &quot;* &quot;- &quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -634,6 +650,16 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Pretendard Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="19"/>
+      <name val="Menlo Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="Menlo Regular"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1386,7 +1412,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1593,6 +1619,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="5" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
@@ -1630,6 +1659,8 @@
       <rgbColor rgb="fff9fafb"/>
       <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="fff9fef8"/>
+      <rgbColor rgb="ff9ecbff"/>
+      <rgbColor rgb="ffe1e4e8"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -4969,22 +5000,22 @@
       <c r="A96" t="s" s="67">
         <v>187</v>
       </c>
-      <c r="B96" t="s" s="68">
+      <c r="B96" t="s" s="69">
         <v>191</v>
       </c>
       <c r="C96" s="64"/>
-      <c r="D96" s="69">
+      <c r="D96" s="70">
         <v>5200</v>
       </c>
-      <c r="E96" s="69">
+      <c r="E96" s="70">
         <v>50</v>
       </c>
-      <c r="F96" s="70">
+      <c r="F96" s="71">
         <v>24</v>
       </c>
       <c r="G96" s="14"/>
       <c r="H96" s="15"/>
-      <c r="I96" s="71"/>
+      <c r="I96" s="72"/>
       <c r="J96" s="17"/>
       <c r="K96" s="9"/>
     </row>

--- a/upload_seed_data/data/domain_goal/domain_target.xlsx
+++ b/upload_seed_data/data/domain_goal/domain_target.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>Country</t>
   </si>
@@ -37,6 +37,9 @@
     <t>NAT_2840</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>Canada</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>NAT_2040</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
@@ -229,7 +235,7 @@
     <t>Korea</t>
   </si>
   <si>
-    <t>OrgCode-7</t>
+    <t>NAT_2410</t>
   </si>
   <si>
     <t>Kazakhstan</t>
@@ -262,6 +268,9 @@
     <t>NAT_2156</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
     <t>Hongkong</t>
   </si>
   <si>
@@ -556,6 +565,12 @@
     <t>NAT_2404</t>
   </si>
   <si>
+    <t>Tanzaina</t>
+  </si>
+  <si>
+    <t>NAT_2834</t>
+  </si>
+  <si>
     <t>Ghana</t>
   </si>
   <si>
@@ -584,12 +599,15 @@
   </si>
   <si>
     <t>NAT_2710</t>
+  </si>
+  <si>
+    <t>Japan</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="19"/>
+        <color indexed="24"/>
         <rFont val="Menlo Regular"/>
       </rPr>
       <t>NAT_2392</t>
@@ -597,7 +615,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="20"/>
+        <color indexed="25"/>
         <rFont val="Menlo Regular"/>
       </rPr>
       <t xml:space="preserve">
@@ -653,16 +671,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="19"/>
+      <color indexed="24"/>
       <name val="Menlo Regular"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="20"/>
+      <color indexed="25"/>
       <name val="Menlo Regular"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,12 +713,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor indexed="17"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -715,9 +763,11 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,12 +776,87 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="medium">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="11"/>
+      </left>
+      <right style="medium">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="12"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -751,86 +876,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="11"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="11"/>
@@ -842,10 +894,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="11"/>
@@ -853,30 +905,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="11"/>
+      <left style="thin">
+        <color indexed="13"/>
       </left>
-      <right style="medium">
-        <color indexed="11"/>
+      <right style="thin">
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="11"/>
+      <left style="thin">
+        <color indexed="13"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,63 +942,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
         <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="medium">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="11"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
@@ -958,37 +954,121 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
+      <top style="medium">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="13"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
+      <top style="medium">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
       </left>
       <right style="thin">
         <color indexed="12"/>
@@ -1009,46 +1089,20 @@
         <color indexed="12"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <bottom style="thin">
         <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="17"/>
-      </left>
-      <right style="thin">
-        <color indexed="17"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="11"/>
@@ -1057,13 +1111,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="medium">
         <color indexed="11"/>
@@ -1075,7 +1129,50 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
@@ -1087,63 +1184,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="medium">
         <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
-      </right>
-      <top style="medium">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="11"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </left>
       <right style="medium">
         <color indexed="11"/>
@@ -1151,8 +1207,8 @@
       <top style="thin">
         <color indexed="13"/>
       </top>
-      <bottom style="thin">
-        <color indexed="13"/>
+      <bottom style="medium">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1168,7 +1224,22 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1185,7 +1256,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="18"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
@@ -1200,67 +1271,22 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="17"/>
+        <color indexed="18"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="medium">
-        <color indexed="11"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="medium">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
@@ -1275,7 +1301,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
@@ -1290,44 +1316,50 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="13"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
@@ -1344,7 +1376,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="medium">
         <color indexed="11"/>
@@ -1355,11 +1387,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="11"/>
+      <left style="thin">
+        <color indexed="13"/>
       </left>
-      <right style="medium">
-        <color indexed="11"/>
+      <right style="thin">
+        <color indexed="13"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1387,7 +1419,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -1402,7 +1434,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1412,7 +1444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,16 +1463,16 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1452,184 +1484,193 @@
     <xf numFmtId="59" fontId="5" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="8" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="6" fillId="8" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="9" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="10" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="10" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="9" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="9" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="9" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="59" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="3" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="6" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="3" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="3" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="3" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="5" fillId="3" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1652,13 +1693,18 @@
       <rgbColor rgb="ff444444"/>
       <rgbColor rgb="fff0f2f5"/>
       <rgbColor rgb="ffdadada"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffc6c6c6"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffb7d6a3"/>
       <rgbColor rgb="ffffc000"/>
       <rgbColor rgb="fff9fafb"/>
       <rgbColor rgb="ffbfbfbf"/>
+      <rgbColor rgb="ffa1b8e1"/>
+      <rgbColor rgb="ffd2d2d2"/>
       <rgbColor rgb="fff9fef8"/>
+      <rgbColor rgb="ffe2eeda"/>
+      <rgbColor rgb="ff84b4df"/>
       <rgbColor rgb="ff9ecbff"/>
       <rgbColor rgb="ffe1e4e8"/>
     </indexedColors>
@@ -1859,17 +1905,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1896,10 +1942,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2138,12 +2184,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2420,7 +2466,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2447,10 +2493,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2692,7 +2738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2744,21 +2790,26 @@
         <v>42000</v>
       </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>362</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14">
+        <f>SUM(C2:F2)</f>
+        <v>42362</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" t="s" s="16">
+        <v>8</v>
+      </c>
       <c r="K2" s="9"/>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" t="s" s="18">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s" s="19">
+      <c r="A3" t="s" s="17">
         <v>9</v>
+      </c>
+      <c r="B3" t="s" s="18">
+        <v>10</v>
       </c>
       <c r="C3" s="12">
         <v>111</v>
@@ -2767,146 +2818,176 @@
         <v>4127</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
         <v>43</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="14">
+        <f>SUM(C3:F3)</f>
+        <v>4281</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" t="s" s="16">
+        <v>8</v>
+      </c>
       <c r="K3" s="9"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="21">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="22">
+      <c r="A4" t="s" s="20">
         <v>11</v>
       </c>
-      <c r="C4" s="23">
+      <c r="B4" t="s" s="21">
+        <v>12</v>
+      </c>
+      <c r="C4" s="22">
         <v>1.54545454545455</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>303.939393939394</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>1.2020202020202</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>13.3939393939394</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="25">
+        <f>SUM(C4:F4)</f>
+        <v>320.080808080808</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K4" s="9"/>
     </row>
     <row r="5" ht="18" customHeight="1">
-      <c r="A5" t="s" s="21">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s" s="22">
+      <c r="A5" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="C5" s="23">
+      <c r="B5" t="s" s="21">
+        <v>14</v>
+      </c>
+      <c r="C5" s="22">
         <v>1</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>196.666666666667</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>0.777777777777778</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>8.66666666666667</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25">
+        <f>SUM(C5:F5)</f>
+        <v>207.111111111111</v>
+      </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="J5" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K5" s="9"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" t="s" s="21">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s" s="22">
+      <c r="A6" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="C6" s="23">
+      <c r="B6" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="C6" s="22">
         <v>1.63636363636364</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>321.818181818182</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>1.27272727272727</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>14.1818181818182</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25">
+        <f>SUM(C6:F6)</f>
+        <v>338.909090909091</v>
+      </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="J6" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K6" s="9"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" t="s" s="21">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s" s="22">
+      <c r="A7" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="C7" s="23">
+      <c r="B7" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="C7" s="22">
         <v>0.545454545454545</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>107.272727272727</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>0.424242424242424</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>4.72727272727273</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25">
+        <f>SUM(C7:F7)</f>
+        <v>112.969696969697</v>
+      </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="J7" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K7" s="9"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" t="s" s="21">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s" s="22">
+      <c r="A8" t="s" s="20">
         <v>19</v>
       </c>
-      <c r="C8" s="23">
+      <c r="B8" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="C8" s="22">
         <v>2.54545454545455</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>500.606060606061</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>1.97979797979798</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>22.0606060606061</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25">
+        <f>SUM(C8:F8)</f>
+        <v>527.191919191920</v>
+      </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K8" s="9"/>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" t="s" s="21">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s" s="22">
+      <c r="A9" t="s" s="20">
         <v>21</v>
+      </c>
+      <c r="B9" t="s" s="21">
+        <v>22</v>
       </c>
       <c r="C9" s="28">
         <v>1.72727272727273</v>
@@ -2920,18 +3001,23 @@
       <c r="F9" s="29">
         <v>14.969696969697</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25">
+        <f>SUM(C9:F9)</f>
+        <v>357.737373737374</v>
+      </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="J9" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K9" s="9"/>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="A10" t="s" s="21">
-        <v>22</v>
+      <c r="A10" t="s" s="20">
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="30">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="31">
         <v>0</v>
@@ -2942,21 +3028,26 @@
       <c r="E10" s="31">
         <v>0</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>48</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="25">
+        <f>SUM(C10:F10)</f>
+        <v>327</v>
+      </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="J10" t="s" s="33">
+        <v>25</v>
+      </c>
       <c r="K10" s="9"/>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" t="s" s="21">
-        <v>24</v>
+      <c r="A11" t="s" s="20">
+        <v>26</v>
       </c>
       <c r="B11" t="s" s="30">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="34">
         <v>0</v>
@@ -2967,215 +3058,254 @@
       <c r="E11" s="34">
         <v>0</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="34">
         <v>30</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="7"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="25">
+        <f>SUM(C11:F11)</f>
+        <v>250</v>
+      </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="J11" t="s" s="33">
+        <v>25</v>
+      </c>
       <c r="K11" s="9"/>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" t="s" s="36">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s" s="37">
-        <v>27</v>
-      </c>
-      <c r="C12" s="23">
+      <c r="A12" t="s" s="35">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s" s="36">
+        <v>29</v>
+      </c>
+      <c r="C12" s="22">
         <v>6.16086956521739</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>136.644927536232</v>
       </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-      <c r="F12" s="24">
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
         <v>4.73913043478261</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25">
+        <f>SUM(C12:F12)</f>
+        <v>147.544927536232</v>
+      </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="J12" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K12" s="9"/>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" t="s" s="36">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s" s="37">
-        <v>29</v>
-      </c>
-      <c r="C13" s="23">
+      <c r="A13" t="s" s="35">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s" s="36">
+        <v>31</v>
+      </c>
+      <c r="C13" s="22">
         <v>13</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>288.333333333333</v>
       </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="23">
         <v>10</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25">
+        <f>SUM(C13:F13)</f>
+        <v>311.333333333333</v>
+      </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K13" s="9"/>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" t="s" s="36">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="C14" s="23">
+      <c r="A14" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s" s="36">
+        <v>33</v>
+      </c>
+      <c r="C14" s="22">
         <v>19.8391304347826</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>440.021739130435</v>
       </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
         <v>15.2608695652174</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25">
+        <f>SUM(C14:F14)</f>
+        <v>475.121739130435</v>
+      </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
+      <c r="J14" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K14" s="9"/>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" t="s" s="36">
-        <v>32</v>
+      <c r="A15" t="s" s="37">
+        <v>34</v>
       </c>
       <c r="B15" s="38"/>
-      <c r="C15" s="23">
+      <c r="C15" s="39">
         <v>11.9</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="39">
         <v>652.12</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="39">
         <v>11.9</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="40">
         <v>22.1</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="14">
+        <f>SUM(C15:F15)</f>
+        <v>698.02</v>
+      </c>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" t="s" s="36">
-        <v>33</v>
+      <c r="A16" t="s" s="37">
+        <v>35</v>
       </c>
       <c r="B16" s="38"/>
-      <c r="C16" s="23">
+      <c r="C16" s="39">
         <v>11.55</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="39">
         <v>632.9400000000001</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="39">
         <v>11.55</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="40">
         <v>21.45</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="14">
+        <f>SUM(C16:F16)</f>
+        <v>677.49</v>
+      </c>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="9"/>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" t="s" s="36">
-        <v>34</v>
+      <c r="A17" t="s" s="37">
+        <v>36</v>
       </c>
       <c r="B17" s="38"/>
-      <c r="C17" s="23">
+      <c r="C17" s="39">
         <v>11.55</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="39">
         <v>632.9400000000001</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="39">
         <v>11.55</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="40">
         <v>21.45</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="14">
+        <f>SUM(C17:F17)</f>
+        <v>677.49</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" t="s" s="36">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s" s="37">
-        <v>36</v>
-      </c>
-      <c r="C18" s="23">
+      <c r="A18" t="s" s="35">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="36">
+        <v>38</v>
+      </c>
+      <c r="C18" s="22">
         <v>56.8</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>579.2</v>
       </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="23">
         <v>28.8</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="9"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25">
+        <f>SUM(C18:F18)</f>
+        <v>664.8</v>
+      </c>
+      <c r="I18" s="26"/>
+      <c r="J18" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K18" s="9"/>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" t="s" s="36">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s" s="37">
-        <v>38</v>
-      </c>
-      <c r="C19" s="23">
+      <c r="A19" t="s" s="35">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s" s="36">
+        <v>40</v>
+      </c>
+      <c r="C19" s="22">
         <v>14.2</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>144.8</v>
       </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23">
         <v>7.2</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25">
+        <f>SUM(C19:F19)</f>
+        <v>166.2</v>
+      </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="J19" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K19" s="9"/>
     </row>
     <row r="20" ht="18" customHeight="1">
-      <c r="A20" t="s" s="36">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s" s="40">
-        <v>40</v>
+      <c r="A20" t="s" s="35">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s" s="43">
+        <v>42</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12">
@@ -3184,92 +3314,112 @@
       <c r="E20" s="12">
         <v>40</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <v>105</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="7"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="25">
+        <f>SUM(C20:F20)</f>
+        <v>2144</v>
+      </c>
       <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
+      <c r="J20" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K20" s="9"/>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" t="s" s="36">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s" s="40">
-        <v>42</v>
+      <c r="A21" t="s" s="35">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s" s="43">
+        <v>44</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12">
         <v>5247</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>462</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="14">
+        <f>SUM(C21:F21)</f>
+        <v>5709</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" t="s" s="16">
+        <v>8</v>
+      </c>
       <c r="K21" s="9"/>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" t="s" s="36">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s" s="37">
-        <v>44</v>
-      </c>
-      <c r="C22" s="23">
-        <v>0</v>
-      </c>
-      <c r="D22" s="23">
+      <c r="A22" t="s" s="35">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s" s="36">
+        <v>46</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0</v>
+      </c>
+      <c r="D22" s="22">
         <v>10.6285714285714</v>
       </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
         <v>0.771428571428571</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="9"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25">
+        <f>SUM(C22:F22)</f>
+        <v>11.4</v>
+      </c>
+      <c r="I22" s="26"/>
+      <c r="J22" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K22" s="9"/>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" t="s" s="36">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s" s="37">
-        <v>46</v>
-      </c>
-      <c r="C23" s="23">
-        <v>0</v>
-      </c>
-      <c r="D23" s="23">
+      <c r="A23" t="s" s="35">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s" s="36">
+        <v>48</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0</v>
+      </c>
+      <c r="D23" s="22">
         <v>609.371428571429</v>
       </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24">
+      <c r="E23" s="22">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
         <v>44.2285714285714</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25">
+        <f>SUM(C23:F23)</f>
+        <v>653.6</v>
+      </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
+      <c r="J23" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K23" s="9"/>
     </row>
     <row r="24" ht="18" customHeight="1">
-      <c r="A24" t="s" s="36">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s" s="40">
-        <v>48</v>
+      <c r="A24" t="s" s="35">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s" s="43">
+        <v>50</v>
       </c>
       <c r="C24" s="12">
         <v>46</v>
@@ -3280,21 +3430,26 @@
       <c r="E24" s="12">
         <v>10</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>32</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="7"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="25">
+        <f>SUM(C24:F24)</f>
+        <v>429</v>
+      </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
+      <c r="J24" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K24" s="9"/>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" t="s" s="36">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s" s="40">
-        <v>50</v>
+      <c r="A25" t="s" s="35">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s" s="43">
+        <v>52</v>
       </c>
       <c r="C25" s="12">
         <v>10</v>
@@ -3305,171 +3460,206 @@
       <c r="E25" s="12">
         <v>1</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>262</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="7"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="25">
+        <f>SUM(C25:F25)</f>
+        <v>1578</v>
+      </c>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="J25" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K25" s="9"/>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" t="s" s="21">
-        <v>51</v>
+      <c r="A26" t="s" s="20">
+        <v>53</v>
       </c>
       <c r="B26" t="s" s="30">
-        <v>52</v>
-      </c>
-      <c r="C26" s="42">
+        <v>54</v>
+      </c>
+      <c r="C26" s="45">
         <v>34</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="45">
         <v>553</v>
       </c>
-      <c r="E26" s="42">
-        <v>0</v>
-      </c>
-      <c r="F26" s="43">
+      <c r="E26" s="45">
+        <v>0</v>
+      </c>
+      <c r="F26" s="45">
         <v>58</v>
       </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="7"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="25">
+        <f>SUM(C26:F26)</f>
+        <v>645</v>
+      </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="J26" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K26" s="9"/>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" t="s" s="21">
-        <v>53</v>
+      <c r="A27" t="s" s="20">
+        <v>55</v>
       </c>
       <c r="B27" t="s" s="30">
-        <v>54</v>
-      </c>
-      <c r="C27" s="42">
-        <v>0</v>
-      </c>
-      <c r="D27" s="42">
+        <v>56</v>
+      </c>
+      <c r="C27" s="45">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45">
         <v>2508</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="45">
         <v>42</v>
       </c>
-      <c r="F27" s="43">
+      <c r="F27" s="45">
         <v>268</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="7"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="25">
+        <f>SUM(C27:F27)</f>
+        <v>2818</v>
+      </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="J27" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K27" s="9"/>
     </row>
     <row r="28" ht="18" customHeight="1">
-      <c r="A28" t="s" s="36">
-        <v>55</v>
-      </c>
-      <c r="B28" t="s" s="37">
-        <v>56</v>
-      </c>
-      <c r="C28" s="23">
-        <v>0</v>
-      </c>
-      <c r="D28" s="23">
+      <c r="A28" t="s" s="35">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s" s="36">
+        <v>58</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0</v>
+      </c>
+      <c r="D28" s="22">
         <v>599.094240837696</v>
       </c>
-      <c r="E28" s="23">
-        <v>0</v>
-      </c>
-      <c r="F28" s="24">
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="23">
         <v>23.586387434555</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="25">
+        <f>SUM(C28:F28)</f>
+        <v>622.6806282722511</v>
+      </c>
       <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="J28" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K28" s="9"/>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" t="s" s="36">
-        <v>57</v>
-      </c>
-      <c r="B29" t="s" s="37">
-        <v>58</v>
-      </c>
-      <c r="C29" s="23">
-        <v>0</v>
-      </c>
-      <c r="D29" s="23">
+      <c r="A29" t="s" s="35">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s" s="36">
+        <v>60</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0</v>
+      </c>
+      <c r="D29" s="22">
         <v>209.450261780105</v>
       </c>
-      <c r="E29" s="23">
-        <v>0</v>
-      </c>
-      <c r="F29" s="24">
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="23">
         <v>8.246073298429319</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25">
+        <f>SUM(C29:F29)</f>
+        <v>217.696335078534</v>
+      </c>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
+      <c r="J29" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K29" s="9"/>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" t="s" s="36">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s" s="37">
-        <v>60</v>
-      </c>
-      <c r="C30" s="23">
-        <v>0</v>
-      </c>
-      <c r="D30" s="23">
+      <c r="A30" t="s" s="35">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s" s="36">
+        <v>62</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22">
         <v>151.602094240838</v>
       </c>
-      <c r="E30" s="23">
-        <v>0</v>
-      </c>
-      <c r="F30" s="24">
+      <c r="E30" s="22">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23">
         <v>5.96858638743455</v>
       </c>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25">
+        <f>SUM(C30:F30)</f>
+        <v>157.570680628273</v>
+      </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="J30" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K30" s="9"/>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" t="s" s="36">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s" s="37">
-        <v>62</v>
-      </c>
-      <c r="C31" s="23">
-        <v>0</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="A31" t="s" s="35">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s" s="36">
+        <v>64</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0</v>
+      </c>
+      <c r="D31" s="22">
         <v>55.8534031413613</v>
       </c>
-      <c r="E31" s="23">
-        <v>0</v>
-      </c>
-      <c r="F31" s="24">
+      <c r="E31" s="22">
+        <v>0</v>
+      </c>
+      <c r="F31" s="23">
         <v>2.19895287958115</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25">
+        <f>SUM(C31:F31)</f>
+        <v>58.0523560209425</v>
+      </c>
       <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="J31" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K31" s="9"/>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" t="s" s="36">
-        <v>63</v>
-      </c>
-      <c r="B32" t="s" s="40">
-        <v>64</v>
+      <c r="A32" t="s" s="35">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s" s="43">
+        <v>66</v>
       </c>
       <c r="C32" s="12">
         <v>134</v>
@@ -3478,71 +3668,86 @@
         <v>1407</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>178</v>
       </c>
-      <c r="G32" s="44"/>
-      <c r="H32" s="7"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25">
+        <f>SUM(C32:F32)</f>
+        <v>1719</v>
+      </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="J32" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K32" s="9"/>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" t="s" s="36">
-        <v>65</v>
-      </c>
-      <c r="B33" t="s" s="37">
-        <v>66</v>
-      </c>
-      <c r="C33" s="23">
+      <c r="A33" t="s" s="35">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s" s="36">
+        <v>68</v>
+      </c>
+      <c r="C33" s="22">
         <v>19.3544303797468</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <v>1224.167721518990</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <v>3.07911392405063</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>33.870253164557</v>
       </c>
-      <c r="G33" s="25"/>
-      <c r="H33" s="26"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25">
+        <f>SUM(C33:F33)</f>
+        <v>1280.471518987340</v>
+      </c>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="J33" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K33" s="9"/>
     </row>
     <row r="34" ht="18" customHeight="1">
-      <c r="A34" t="s" s="36">
-        <v>67</v>
-      </c>
-      <c r="B34" t="s" s="37">
-        <v>68</v>
-      </c>
-      <c r="C34" s="23">
+      <c r="A34" t="s" s="35">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s" s="36">
+        <v>70</v>
+      </c>
+      <c r="C34" s="22">
         <v>24.6455696202532</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="22">
         <v>1558.832278481010</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <v>3.92088607594937</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>43.129746835443</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="25">
+        <f>SUM(C34:F34)</f>
+        <v>1630.528481012660</v>
+      </c>
       <c r="I34" s="8"/>
-      <c r="J34" s="9"/>
+      <c r="J34" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K34" s="9"/>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" t="s" s="36">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s" s="40">
-        <v>70</v>
+      <c r="A35" t="s" s="35">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s" s="43">
+        <v>72</v>
       </c>
       <c r="C35" s="12">
         <v>258</v>
@@ -3553,157 +3758,196 @@
       <c r="E35" s="12">
         <v>258</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>102</v>
       </c>
-      <c r="G35" s="44"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="14">
+        <f>SUM(C35:F35)</f>
+        <v>14993</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" t="s" s="16">
+        <v>8</v>
+      </c>
       <c r="K35" s="9"/>
     </row>
     <row r="36" ht="18" customHeight="1">
-      <c r="A36" t="s" s="36">
-        <v>71</v>
-      </c>
-      <c r="B36" t="s" s="40">
-        <v>72</v>
-      </c>
-      <c r="C36" s="12"/>
+      <c r="A36" t="s" s="35">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s" s="36">
+        <v>74</v>
+      </c>
+      <c r="C36" s="46"/>
       <c r="D36" s="12">
         <v>2541</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>859</v>
       </c>
-      <c r="G36" s="44"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="9"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25">
+        <f>SUM(C36:F36)</f>
+        <v>3400</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K36" s="9"/>
     </row>
     <row r="37" ht="18" customHeight="1">
-      <c r="A37" t="s" s="36">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s" s="37">
-        <v>74</v>
-      </c>
-      <c r="C37" s="23">
-        <v>0</v>
-      </c>
-      <c r="D37" s="23">
+      <c r="A37" t="s" s="35">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s" s="36">
+        <v>76</v>
+      </c>
+      <c r="C37" s="22">
+        <v>0</v>
+      </c>
+      <c r="D37" s="22">
         <v>473.849258649094</v>
       </c>
-      <c r="E37" s="23">
-        <v>0</v>
-      </c>
-      <c r="F37" s="24">
+      <c r="E37" s="22">
+        <v>0</v>
+      </c>
+      <c r="F37" s="23">
         <v>327.672158154860</v>
       </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="25">
+        <f>SUM(C37:F37)</f>
+        <v>801.521416803954</v>
+      </c>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+      <c r="J37" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K37" s="9"/>
     </row>
     <row r="38" ht="18" customHeight="1">
-      <c r="A38" t="s" s="36">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s" s="37">
-        <v>76</v>
-      </c>
-      <c r="C38" s="23">
-        <v>0</v>
-      </c>
-      <c r="D38" s="23">
+      <c r="A38" t="s" s="35">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s" s="36">
+        <v>78</v>
+      </c>
+      <c r="C38" s="22">
+        <v>0</v>
+      </c>
+      <c r="D38" s="22">
         <v>7.95716639209226</v>
       </c>
-      <c r="E38" s="23">
-        <v>0</v>
-      </c>
-      <c r="F38" s="24">
+      <c r="E38" s="22">
+        <v>0</v>
+      </c>
+      <c r="F38" s="23">
         <v>5.50247116968699</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="25">
+        <f>SUM(C38:F38)</f>
+        <v>13.4596375617793</v>
+      </c>
       <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="J38" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K38" s="9"/>
     </row>
     <row r="39" ht="18" customHeight="1">
-      <c r="A39" t="s" s="36">
-        <v>77</v>
-      </c>
-      <c r="B39" t="s" s="37">
-        <v>78</v>
-      </c>
-      <c r="C39" s="23">
-        <v>0</v>
-      </c>
-      <c r="D39" s="23">
+      <c r="A39" t="s" s="35">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s" s="36">
+        <v>80</v>
+      </c>
+      <c r="C39" s="22">
+        <v>0</v>
+      </c>
+      <c r="D39" s="22">
         <v>1.19357495881384</v>
       </c>
-      <c r="E39" s="23">
-        <v>0</v>
-      </c>
-      <c r="F39" s="24">
+      <c r="E39" s="22">
+        <v>0</v>
+      </c>
+      <c r="F39" s="23">
         <v>0.825370675453048</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="25">
+        <f>SUM(C39:F39)</f>
+        <v>2.01894563426689</v>
+      </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
+      <c r="J39" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K39" s="9"/>
     </row>
     <row r="40" ht="18" customHeight="1">
-      <c r="A40" t="s" s="36">
-        <v>79</v>
-      </c>
-      <c r="B40" t="s" s="40">
-        <v>80</v>
+      <c r="A40" t="s" s="35">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s" s="43">
+        <v>82</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12">
         <v>870</v>
       </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>122</v>
       </c>
-      <c r="G40" s="44"/>
-      <c r="H40" s="7"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="25">
+        <f>SUM(C40:F40)</f>
+        <v>992</v>
+      </c>
       <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
+      <c r="J40" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K40" s="9"/>
     </row>
     <row r="41" ht="18" customHeight="1">
-      <c r="A41" t="s" s="36">
-        <v>81</v>
-      </c>
-      <c r="B41" t="s" s="40">
-        <v>82</v>
+      <c r="A41" t="s" s="35">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s" s="43">
+        <v>84</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12">
         <v>2027</v>
       </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
+      <c r="E41" s="47">
+        <v>1708</v>
+      </c>
+      <c r="F41" s="48">
+        <v>777</v>
+      </c>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50">
+        <f>SUM(C41:F41)</f>
+        <v>4512</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" t="s" s="51">
+        <v>85</v>
+      </c>
       <c r="K41" s="9"/>
     </row>
     <row r="42" ht="18" customHeight="1">
       <c r="A42" t="s" s="10">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C42" s="12">
         <v>30</v>
@@ -3711,24 +3955,29 @@
       <c r="D42" s="12">
         <v>642</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="52">
         <v>43</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="52">
         <v>235</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="14">
+        <f>SUM(C42:F42)</f>
+        <v>950</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" t="s" s="16">
+        <v>8</v>
+      </c>
       <c r="K42" s="9"/>
     </row>
     <row r="43" ht="18" customHeight="1">
-      <c r="A43" t="s" s="18">
-        <v>85</v>
-      </c>
-      <c r="B43" t="s" s="19">
-        <v>86</v>
+      <c r="A43" t="s" s="17">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="18">
+        <v>89</v>
       </c>
       <c r="C43" s="12">
         <v>302</v>
@@ -3739,21 +3988,26 @@
       <c r="E43" s="12">
         <v>25</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>153</v>
       </c>
-      <c r="G43" s="44"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="9"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25">
+        <f>SUM(C43:F43)</f>
+        <v>3447</v>
+      </c>
+      <c r="I43" s="26"/>
+      <c r="J43" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K43" s="9"/>
     </row>
     <row r="44" ht="18" customHeight="1">
-      <c r="A44" t="s" s="36">
-        <v>87</v>
-      </c>
-      <c r="B44" t="s" s="40">
-        <v>88</v>
+      <c r="A44" t="s" s="35">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="43">
+        <v>91</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12">
@@ -3762,21 +4016,26 @@
       <c r="E44" s="12">
         <v>28</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <v>2324</v>
       </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="7"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="25">
+        <f>SUM(C44:F44)</f>
+        <v>6414</v>
+      </c>
       <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="J44" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K44" s="9"/>
     </row>
     <row r="45" ht="18" customHeight="1">
-      <c r="A45" t="s" s="36">
-        <v>89</v>
-      </c>
-      <c r="B45" t="s" s="40">
-        <v>90</v>
+      <c r="A45" t="s" s="35">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="43">
+        <v>93</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12">
@@ -3785,21 +4044,26 @@
       <c r="E45" s="12">
         <v>138</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <v>114</v>
       </c>
-      <c r="G45" s="44"/>
-      <c r="H45" s="7"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25">
+        <f>SUM(C45:F45)</f>
+        <v>1078</v>
+      </c>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
+      <c r="J45" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K45" s="9"/>
     </row>
     <row r="46" ht="18" customHeight="1">
-      <c r="A46" t="s" s="36">
-        <v>91</v>
-      </c>
-      <c r="B46" t="s" s="40">
-        <v>92</v>
+      <c r="A46" t="s" s="35">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="43">
+        <v>95</v>
       </c>
       <c r="C46" s="12">
         <v>827</v>
@@ -3810,42 +4074,52 @@
       <c r="E46" s="12">
         <v>615</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="12">
         <v>6997</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="7"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="25">
+        <f>SUM(C46:F46)</f>
+        <v>17330</v>
+      </c>
       <c r="I46" s="8"/>
-      <c r="J46" s="9"/>
+      <c r="J46" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K46" s="9"/>
     </row>
     <row r="47" ht="18" customHeight="1">
-      <c r="A47" t="s" s="36">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s" s="40">
-        <v>94</v>
+      <c r="A47" t="s" s="35">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="43">
+        <v>97</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12">
         <v>829</v>
       </c>
       <c r="E47" s="12"/>
-      <c r="F47" s="13">
+      <c r="F47" s="12">
         <v>11</v>
       </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="14">
+        <f>SUM(C47:F47)</f>
+        <v>840</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" t="s" s="16">
+        <v>8</v>
+      </c>
       <c r="K47" s="9"/>
     </row>
     <row r="48" ht="18" customHeight="1">
-      <c r="A48" t="s" s="36">
-        <v>95</v>
-      </c>
-      <c r="B48" t="s" s="40">
-        <v>96</v>
+      <c r="A48" t="s" s="35">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="43">
+        <v>99</v>
       </c>
       <c r="C48" s="12">
         <v>584</v>
@@ -3856,21 +4130,26 @@
       <c r="E48" s="12">
         <v>215</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="12">
         <v>1621</v>
       </c>
-      <c r="G48" s="44"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="9"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="25">
+        <f>SUM(C48:F48)</f>
+        <v>4059</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="J48" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K48" s="9"/>
     </row>
     <row r="49" ht="18" customHeight="1">
-      <c r="A49" t="s" s="36">
-        <v>97</v>
-      </c>
-      <c r="B49" t="s" s="40">
-        <v>98</v>
+      <c r="A49" t="s" s="35">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="43">
+        <v>101</v>
       </c>
       <c r="C49" s="12">
         <v>51</v>
@@ -3881,21 +4160,26 @@
       <c r="E49" s="12">
         <v>15</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="12">
         <v>22</v>
       </c>
-      <c r="G49" s="44"/>
-      <c r="H49" s="7"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="25">
+        <f>SUM(C49:F49)</f>
+        <v>416</v>
+      </c>
       <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
+      <c r="J49" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K49" s="9"/>
     </row>
     <row r="50" ht="18" customHeight="1">
-      <c r="A50" t="s" s="36">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s" s="40">
-        <v>100</v>
+      <c r="A50" t="s" s="35">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="43">
+        <v>103</v>
       </c>
       <c r="C50" s="12">
         <v>345</v>
@@ -3906,121 +4190,146 @@
       <c r="E50" s="12">
         <v>60</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="12">
         <v>345</v>
       </c>
-      <c r="G50" s="44"/>
-      <c r="H50" s="7"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="25">
+        <f>SUM(C50:F50)</f>
+        <v>2060</v>
+      </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
+      <c r="J50" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K50" s="9"/>
     </row>
     <row r="51" ht="18" customHeight="1">
-      <c r="A51" t="s" s="21">
-        <v>101</v>
+      <c r="A51" t="s" s="20">
+        <v>104</v>
       </c>
       <c r="B51" t="s" s="30">
-        <v>102</v>
-      </c>
-      <c r="C51" s="42">
-        <v>0</v>
-      </c>
-      <c r="D51" s="42">
+        <v>105</v>
+      </c>
+      <c r="C51" s="45">
+        <v>0</v>
+      </c>
+      <c r="D51" s="45">
         <v>169</v>
       </c>
-      <c r="E51" s="42">
-        <v>0</v>
-      </c>
-      <c r="F51" s="43">
+      <c r="E51" s="45">
+        <v>0</v>
+      </c>
+      <c r="F51" s="45">
         <v>115</v>
       </c>
-      <c r="G51" s="33"/>
-      <c r="H51" s="7"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="25">
+        <f>SUM(C51:F51)</f>
+        <v>284</v>
+      </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="J51" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K51" s="9"/>
     </row>
     <row r="52" ht="18" customHeight="1">
-      <c r="A52" t="s" s="21">
-        <v>103</v>
+      <c r="A52" t="s" s="20">
+        <v>106</v>
       </c>
       <c r="B52" t="s" s="30">
-        <v>104</v>
-      </c>
-      <c r="C52" s="42">
-        <v>0</v>
-      </c>
-      <c r="D52" s="42">
+        <v>107</v>
+      </c>
+      <c r="C52" s="45">
+        <v>0</v>
+      </c>
+      <c r="D52" s="45">
         <v>150</v>
       </c>
-      <c r="E52" s="42">
-        <v>0</v>
-      </c>
-      <c r="F52" s="43">
+      <c r="E52" s="45">
+        <v>0</v>
+      </c>
+      <c r="F52" s="45">
         <v>89</v>
       </c>
-      <c r="G52" s="41"/>
-      <c r="H52" s="7"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="25">
+        <f>SUM(C52:F52)</f>
+        <v>239</v>
+      </c>
       <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
+      <c r="J52" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K52" s="9"/>
     </row>
     <row r="53" ht="18" customHeight="1">
-      <c r="A53" t="s" s="21">
-        <v>105</v>
+      <c r="A53" t="s" s="20">
+        <v>108</v>
       </c>
       <c r="B53" t="s" s="30">
-        <v>106</v>
-      </c>
-      <c r="C53" s="42">
-        <v>0</v>
-      </c>
-      <c r="D53" s="42">
+        <v>109</v>
+      </c>
+      <c r="C53" s="45">
+        <v>0</v>
+      </c>
+      <c r="D53" s="45">
         <v>475</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="45">
         <v>38</v>
       </c>
-      <c r="F53" s="43">
+      <c r="F53" s="45">
         <v>500</v>
       </c>
-      <c r="G53" s="41"/>
-      <c r="H53" s="7"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="25">
+        <f>SUM(C53:F53)</f>
+        <v>1013</v>
+      </c>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
+      <c r="J53" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K53" s="9"/>
     </row>
     <row r="54" ht="18" customHeight="1">
-      <c r="A54" t="s" s="21">
-        <v>107</v>
+      <c r="A54" t="s" s="20">
+        <v>110</v>
       </c>
       <c r="B54" t="s" s="30">
-        <v>108</v>
-      </c>
-      <c r="C54" s="42">
+        <v>111</v>
+      </c>
+      <c r="C54" s="45">
         <v>409</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="45">
         <v>578</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="45">
         <v>224</v>
       </c>
-      <c r="F54" s="43">
+      <c r="F54" s="45">
         <v>1807</v>
       </c>
-      <c r="G54" s="20"/>
-      <c r="H54" s="7"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="25">
+        <f>SUM(C54:F54)</f>
+        <v>3018</v>
+      </c>
       <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
+      <c r="J54" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K54" s="9"/>
     </row>
     <row r="55" ht="18" customHeight="1">
-      <c r="A55" t="s" s="36">
-        <v>109</v>
-      </c>
-      <c r="B55" t="s" s="40">
-        <v>110</v>
+      <c r="A55" t="s" s="35">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s" s="43">
+        <v>113</v>
       </c>
       <c r="C55" s="12">
         <v>20</v>
@@ -4029,63 +4338,78 @@
       <c r="E55" s="12">
         <v>20</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="12">
         <v>40</v>
       </c>
-      <c r="G55" s="44"/>
-      <c r="H55" s="7"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25">
+        <f>SUM(C55:F55)</f>
+        <v>80</v>
+      </c>
       <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
+      <c r="J55" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K55" s="9"/>
     </row>
     <row r="56" ht="18" customHeight="1">
-      <c r="A56" t="s" s="36">
-        <v>111</v>
-      </c>
-      <c r="B56" t="s" s="40">
-        <v>112</v>
+      <c r="A56" t="s" s="35">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s" s="43">
+        <v>115</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12">
         <v>15</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="12">
         <v>269</v>
       </c>
-      <c r="G56" s="44"/>
-      <c r="H56" s="7"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="25">
+        <f>SUM(C56:F56)</f>
+        <v>284</v>
+      </c>
       <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
+      <c r="J56" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K56" s="9"/>
     </row>
     <row r="57" ht="18" customHeight="1">
       <c r="A57" t="s" s="10">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12">
         <v>2011</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>21793</v>
       </c>
-      <c r="G57" s="44"/>
-      <c r="H57" s="7"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="25">
+        <f>SUM(C57:F57)</f>
+        <v>23804</v>
+      </c>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="J57" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K57" s="9"/>
     </row>
     <row r="58" ht="18" customHeight="1">
-      <c r="A58" t="s" s="18">
-        <v>115</v>
-      </c>
-      <c r="B58" t="s" s="19">
-        <v>116</v>
+      <c r="A58" t="s" s="17">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s" s="18">
+        <v>119</v>
       </c>
       <c r="C58" s="12">
         <v>6</v>
@@ -4094,219 +4418,262 @@
       <c r="E58" s="12">
         <v>10</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="7"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="25">
+        <f>SUM(C58:F58)</f>
+        <v>16</v>
+      </c>
       <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
+      <c r="J58" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K58" s="9"/>
     </row>
     <row r="59" ht="18" customHeight="1">
-      <c r="A59" t="s" s="36">
-        <v>117</v>
-      </c>
-      <c r="B59" t="s" s="37">
-        <v>118</v>
-      </c>
-      <c r="C59" s="23">
+      <c r="A59" t="s" s="35">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s" s="36">
+        <v>121</v>
+      </c>
+      <c r="C59" s="22">
         <v>102.052631578947</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="22">
         <v>67.0631578947368</v>
       </c>
-      <c r="E59" s="23">
-        <v>0</v>
-      </c>
-      <c r="F59" s="24">
+      <c r="E59" s="22">
+        <v>0</v>
+      </c>
+      <c r="F59" s="23">
         <v>14.5789473684211</v>
       </c>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="25">
+        <f>SUM(C59:F59)</f>
+        <v>183.694736842105</v>
+      </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
+      <c r="J59" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K59" s="9"/>
     </row>
     <row r="60" ht="18" customHeight="1">
-      <c r="A60" t="s" s="36">
-        <v>119</v>
-      </c>
-      <c r="B60" t="s" s="37">
-        <v>120</v>
-      </c>
-      <c r="C60" s="23">
+      <c r="A60" t="s" s="35">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s" s="36">
+        <v>123</v>
+      </c>
+      <c r="C60" s="22">
         <v>2.94736842105263</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="22">
         <v>1.93684210526316</v>
       </c>
-      <c r="E60" s="23">
-        <v>0</v>
-      </c>
-      <c r="F60" s="24">
+      <c r="E60" s="22">
+        <v>0</v>
+      </c>
+      <c r="F60" s="23">
         <v>0.421052631578947</v>
       </c>
-      <c r="G60" s="25"/>
-      <c r="H60" s="26"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25">
+        <f>SUM(C60:F60)</f>
+        <v>5.30526315789474</v>
+      </c>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="J60" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K60" s="9"/>
     </row>
     <row r="61" ht="18" customHeight="1">
-      <c r="A61" t="s" s="36">
-        <v>121</v>
-      </c>
-      <c r="B61" t="s" s="37">
-        <v>122</v>
-      </c>
-      <c r="C61" s="23">
-        <v>0</v>
-      </c>
-      <c r="D61" s="23">
+      <c r="A61" t="s" s="35">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s" s="36">
+        <v>125</v>
+      </c>
+      <c r="C61" s="22">
+        <v>0</v>
+      </c>
+      <c r="D61" s="22">
         <v>124.564748201439</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>1.39568345323741</v>
       </c>
-      <c r="F61" s="24">
+      <c r="F61" s="23">
         <v>94.9064748201439</v>
       </c>
-      <c r="G61" s="25"/>
-      <c r="H61" s="26"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25">
+        <f>SUM(C61:F61)</f>
+        <v>220.866906474820</v>
+      </c>
       <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
+      <c r="J61" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K61" s="9"/>
     </row>
     <row r="62" ht="18" customHeight="1">
-      <c r="A62" t="s" s="36">
-        <v>123</v>
-      </c>
-      <c r="B62" t="s" s="37">
-        <v>124</v>
-      </c>
-      <c r="C62" s="23">
-        <v>0</v>
-      </c>
-      <c r="D62" s="23">
+      <c r="A62" t="s" s="35">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s" s="36">
+        <v>127</v>
+      </c>
+      <c r="C62" s="22">
+        <v>0</v>
+      </c>
+      <c r="D62" s="22">
         <v>210.604316546763</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>2.35971223021583</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="23">
         <v>160.460431654676</v>
       </c>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="25">
+        <f>SUM(C62:F62)</f>
+        <v>373.424460431655</v>
+      </c>
       <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
+      <c r="J62" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K62" s="9"/>
     </row>
     <row r="63" ht="18" customHeight="1">
-      <c r="A63" t="s" s="36">
-        <v>125</v>
-      </c>
-      <c r="B63" t="s" s="37">
-        <v>126</v>
-      </c>
-      <c r="C63" s="23">
-        <v>0</v>
-      </c>
-      <c r="D63" s="23">
+      <c r="A63" t="s" s="35">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s" s="36">
+        <v>129</v>
+      </c>
+      <c r="C63" s="22">
+        <v>0</v>
+      </c>
+      <c r="D63" s="22">
         <v>21.8309352517986</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>0.244604316546763</v>
       </c>
-      <c r="F63" s="24">
+      <c r="F63" s="23">
         <v>16.6330935251799</v>
       </c>
-      <c r="G63" s="25"/>
-      <c r="H63" s="26"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25">
+        <f>SUM(C63:F63)</f>
+        <v>38.7086330935253</v>
+      </c>
       <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
+      <c r="J63" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K63" s="9"/>
     </row>
     <row r="64" ht="18" customHeight="1">
-      <c r="A64" t="s" s="21">
-        <v>127</v>
+      <c r="A64" t="s" s="20">
+        <v>130</v>
       </c>
       <c r="B64" t="s" s="30">
-        <v>128</v>
-      </c>
-      <c r="C64" s="42">
-        <v>0</v>
-      </c>
-      <c r="D64" s="42">
-        <v>0</v>
-      </c>
-      <c r="E64" s="42">
-        <v>0</v>
-      </c>
-      <c r="F64" s="43">
-        <v>0</v>
-      </c>
-      <c r="G64" s="33"/>
-      <c r="H64" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="C64" s="45">
+        <v>0</v>
+      </c>
+      <c r="D64" s="45">
+        <v>0</v>
+      </c>
+      <c r="E64" s="45">
+        <v>0</v>
+      </c>
+      <c r="F64" s="45">
+        <v>0</v>
+      </c>
+      <c r="G64" s="32"/>
+      <c r="H64" s="25">
+        <f>SUM(C64:F64)</f>
+        <v>0</v>
+      </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
     </row>
     <row r="65" ht="18" customHeight="1">
-      <c r="A65" t="s" s="21">
-        <v>129</v>
+      <c r="A65" t="s" s="20">
+        <v>132</v>
       </c>
       <c r="B65" t="s" s="30">
-        <v>130</v>
-      </c>
-      <c r="C65" s="42">
+        <v>133</v>
+      </c>
+      <c r="C65" s="45">
         <v>25</v>
       </c>
-      <c r="D65" s="42">
+      <c r="D65" s="45">
         <v>303</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="45">
         <v>36</v>
       </c>
-      <c r="F65" s="43">
+      <c r="F65" s="45">
         <v>204</v>
       </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="7"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="25">
+        <f>SUM(C65:F65)</f>
+        <v>568</v>
+      </c>
       <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
+      <c r="J65" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K65" s="9"/>
     </row>
     <row r="66" ht="18" customHeight="1">
-      <c r="A66" t="s" s="21">
-        <v>131</v>
+      <c r="A66" t="s" s="20">
+        <v>134</v>
       </c>
       <c r="B66" t="s" s="30">
-        <v>132</v>
-      </c>
-      <c r="C66" s="42">
+        <v>135</v>
+      </c>
+      <c r="C66" s="45">
         <v>10</v>
       </c>
-      <c r="D66" s="42">
+      <c r="D66" s="45">
         <v>40</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="45">
         <v>10</v>
       </c>
-      <c r="F66" s="43">
+      <c r="F66" s="45">
         <v>40</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="7"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="25">
+        <f>SUM(C66:F66)</f>
+        <v>100</v>
+      </c>
       <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
+      <c r="J66" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K66" s="9"/>
     </row>
     <row r="67" ht="18" customHeight="1">
-      <c r="A67" t="s" s="36">
-        <v>133</v>
-      </c>
-      <c r="B67" t="s" s="40">
-        <v>134</v>
+      <c r="A67" t="s" s="35">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s" s="43">
+        <v>137</v>
       </c>
       <c r="C67" s="12">
         <v>12</v>
@@ -4317,21 +4684,26 @@
       <c r="E67" s="12">
         <v>6</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="12">
         <v>213</v>
       </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="7"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="25">
+        <f>SUM(C67:F67)</f>
+        <v>671</v>
+      </c>
       <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="J67" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K67" s="9"/>
     </row>
     <row r="68" ht="18" customHeight="1">
       <c r="A68" t="s" s="10">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s" s="11">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C68" s="12">
         <v>112</v>
@@ -4342,146 +4714,176 @@
       <c r="E68" s="12">
         <v>12</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="12">
         <v>415</v>
       </c>
-      <c r="G68" s="44"/>
-      <c r="H68" s="7"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="25">
+        <f>SUM(C68:F68)</f>
+        <v>1700</v>
+      </c>
       <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="J68" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K68" s="9"/>
     </row>
     <row r="69" ht="18" customHeight="1">
-      <c r="A69" t="s" s="45">
-        <v>137</v>
-      </c>
-      <c r="B69" t="s" s="46">
-        <v>138</v>
-      </c>
-      <c r="C69" s="23">
+      <c r="A69" t="s" s="53">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s" s="54">
+        <v>141</v>
+      </c>
+      <c r="C69" s="22">
         <v>40.4878048780488</v>
       </c>
-      <c r="D69" s="23">
+      <c r="D69" s="22">
         <v>239.687804878049</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>59.9219512195122</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F69" s="23">
         <v>120.653658536585</v>
       </c>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="25">
+        <f>SUM(C69:F69)</f>
+        <v>460.751219512195</v>
+      </c>
       <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
+      <c r="J69" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K69" s="9"/>
     </row>
     <row r="70" ht="18" customHeight="1">
-      <c r="A70" t="s" s="45">
-        <v>139</v>
-      </c>
-      <c r="B70" t="s" s="46">
-        <v>140</v>
-      </c>
-      <c r="C70" s="23">
+      <c r="A70" t="s" s="53">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s" s="54">
+        <v>143</v>
+      </c>
+      <c r="C70" s="22">
         <v>14.390243902439</v>
       </c>
-      <c r="D70" s="23">
+      <c r="D70" s="22">
         <v>85.19024390243899</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>21.2975609756098</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F70" s="23">
         <v>42.8829268292683</v>
       </c>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="25">
+        <f>SUM(C70:F70)</f>
+        <v>163.760975609756</v>
+      </c>
       <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
+      <c r="J70" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K70" s="9"/>
     </row>
     <row r="71" ht="18" customHeight="1">
-      <c r="A71" t="s" s="45">
-        <v>141</v>
-      </c>
-      <c r="B71" t="s" s="46">
-        <v>142</v>
-      </c>
-      <c r="C71" s="23">
+      <c r="A71" t="s" s="53">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s" s="54">
+        <v>145</v>
+      </c>
+      <c r="C71" s="22">
         <v>18.5365853658537</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="22">
         <v>109.736585365854</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>27.4341463414634</v>
       </c>
-      <c r="F71" s="24">
+      <c r="F71" s="23">
         <v>55.2390243902439</v>
       </c>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="25">
+        <f>SUM(C71:F71)</f>
+        <v>210.946341463415</v>
+      </c>
       <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
+      <c r="J71" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K71" s="9"/>
     </row>
     <row r="72" ht="18" customHeight="1">
-      <c r="A72" t="s" s="45">
-        <v>143</v>
-      </c>
-      <c r="B72" t="s" s="46">
-        <v>144</v>
-      </c>
-      <c r="C72" s="23">
+      <c r="A72" t="s" s="53">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s" s="54">
+        <v>147</v>
+      </c>
+      <c r="C72" s="22">
         <v>11.9512195121951</v>
       </c>
-      <c r="D72" s="23">
+      <c r="D72" s="22">
         <v>70.75121951219511</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <v>17.6878048780488</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="23">
         <v>35.6146341463415</v>
       </c>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="25">
+        <f>SUM(C72:F72)</f>
+        <v>136.004878048781</v>
+      </c>
       <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
+      <c r="J72" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K72" s="9"/>
     </row>
     <row r="73" ht="18" customHeight="1">
-      <c r="A73" t="s" s="18">
-        <v>145</v>
-      </c>
-      <c r="B73" t="s" s="47">
-        <v>146</v>
-      </c>
-      <c r="C73" s="23">
+      <c r="A73" t="s" s="17">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s" s="55">
+        <v>149</v>
+      </c>
+      <c r="C73" s="22">
         <v>14.6341463414634</v>
       </c>
-      <c r="D73" s="23">
+      <c r="D73" s="22">
         <v>86.63414634146341</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="22">
         <v>21.6585365853659</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="23">
         <v>43.609756097561</v>
       </c>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="25">
+        <f>SUM(C73:F73)</f>
+        <v>166.536585365854</v>
+      </c>
       <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
+      <c r="J73" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K73" s="9"/>
     </row>
     <row r="74" ht="18" customHeight="1">
-      <c r="A74" t="s" s="36">
-        <v>147</v>
-      </c>
-      <c r="B74" t="s" s="40">
-        <v>148</v>
+      <c r="A74" t="s" s="35">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s" s="43">
+        <v>151</v>
       </c>
       <c r="C74" s="12">
         <v>93</v>
@@ -4492,92 +4894,112 @@
       <c r="E74" s="12">
         <v>93</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="12">
         <v>518</v>
       </c>
-      <c r="G74" s="44"/>
-      <c r="H74" s="7"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="25">
+        <f>SUM(C74:F74)</f>
+        <v>804</v>
+      </c>
       <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
+      <c r="J74" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K74" s="9"/>
     </row>
     <row r="75" ht="18" customHeight="1">
-      <c r="A75" t="s" s="36">
-        <v>149</v>
-      </c>
-      <c r="B75" t="s" s="40">
-        <v>150</v>
+      <c r="A75" t="s" s="35">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s" s="43">
+        <v>153</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12">
         <v>789</v>
       </c>
       <c r="E75" s="12"/>
-      <c r="F75" s="13">
+      <c r="F75" s="12">
         <v>64</v>
       </c>
-      <c r="G75" s="44"/>
-      <c r="H75" s="7"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="25">
+        <f>SUM(C75:F75)</f>
+        <v>853</v>
+      </c>
       <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
+      <c r="J75" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K75" s="9"/>
     </row>
     <row r="76" ht="18" customHeight="1">
-      <c r="A76" t="s" s="21">
-        <v>151</v>
+      <c r="A76" t="s" s="20">
+        <v>154</v>
       </c>
       <c r="B76" t="s" s="30">
-        <v>152</v>
-      </c>
-      <c r="C76" s="42">
+        <v>155</v>
+      </c>
+      <c r="C76" s="45">
         <v>20</v>
       </c>
-      <c r="D76" s="42">
+      <c r="D76" s="45">
         <v>80</v>
       </c>
-      <c r="E76" s="42">
-        <v>0</v>
-      </c>
-      <c r="F76" s="43">
+      <c r="E76" s="45">
+        <v>0</v>
+      </c>
+      <c r="F76" s="45">
         <v>74</v>
       </c>
-      <c r="G76" s="33"/>
-      <c r="H76" s="7"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="25">
+        <f>SUM(C76:F76)</f>
+        <v>174</v>
+      </c>
       <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
+      <c r="J76" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K76" s="9"/>
     </row>
     <row r="77" ht="18" customHeight="1">
-      <c r="A77" t="s" s="21">
-        <v>153</v>
+      <c r="A77" t="s" s="20">
+        <v>156</v>
       </c>
       <c r="B77" t="s" s="30">
-        <v>154</v>
-      </c>
-      <c r="C77" s="42">
+        <v>157</v>
+      </c>
+      <c r="C77" s="45">
         <v>158</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="45">
         <v>190</v>
       </c>
-      <c r="E77" s="42">
-        <v>0</v>
-      </c>
-      <c r="F77" s="43">
+      <c r="E77" s="45">
+        <v>0</v>
+      </c>
+      <c r="F77" s="45">
         <v>363</v>
       </c>
-      <c r="G77" s="20"/>
-      <c r="H77" s="7"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="25">
+        <f>SUM(C77:F77)</f>
+        <v>711</v>
+      </c>
       <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
+      <c r="J77" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K77" s="9"/>
     </row>
     <row r="78" ht="18" customHeight="1">
-      <c r="A78" t="s" s="36">
-        <v>155</v>
-      </c>
-      <c r="B78" t="s" s="40">
-        <v>156</v>
+      <c r="A78" t="s" s="35">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s" s="43">
+        <v>159</v>
       </c>
       <c r="C78" s="12">
         <v>1671</v>
@@ -4586,261 +5008,318 @@
         <v>1813</v>
       </c>
       <c r="E78" s="12"/>
-      <c r="F78" s="13">
+      <c r="F78" s="12">
         <v>961</v>
       </c>
-      <c r="G78" s="44"/>
-      <c r="H78" s="7"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25">
+        <f>SUM(C78:F78)</f>
+        <v>4445</v>
+      </c>
       <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
+      <c r="J78" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K78" s="9"/>
     </row>
     <row r="79" ht="18" customHeight="1">
-      <c r="A79" t="s" s="36">
-        <v>157</v>
-      </c>
-      <c r="B79" t="s" s="40">
-        <v>158</v>
+      <c r="A79" t="s" s="35">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s" s="43">
+        <v>161</v>
       </c>
       <c r="C79" s="12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D79" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12">
+        <v>4</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="25">
+        <f>SUM(C79:F79)</f>
+        <v>22</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" t="s" s="56">
+        <v>85</v>
+      </c>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" ht="18" customHeight="1">
+      <c r="A80" t="s" s="35">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s" s="43">
+        <v>163</v>
+      </c>
+      <c r="C80" s="12">
+        <v>18</v>
+      </c>
+      <c r="D80" s="12">
+        <v>180</v>
+      </c>
+      <c r="E80" s="12">
         <v>2</v>
       </c>
-      <c r="F79" s="13">
-        <v>46</v>
-      </c>
-      <c r="G79" s="44"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" ht="18" customHeight="1">
-      <c r="A80" t="s" s="36">
-        <v>159</v>
-      </c>
-      <c r="B80" t="s" s="40">
-        <v>160</v>
-      </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="7"/>
+      <c r="F80" s="12">
+        <v>42</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="25">
+        <f>SUM(C80:F80)</f>
+        <v>242</v>
+      </c>
       <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="J80" t="s" s="56">
+        <v>85</v>
+      </c>
       <c r="K80" s="9"/>
     </row>
     <row r="81" ht="18" customHeight="1">
-      <c r="A81" t="s" s="21">
-        <v>161</v>
+      <c r="A81" t="s" s="20">
+        <v>164</v>
       </c>
       <c r="B81" t="s" s="30">
-        <v>162</v>
-      </c>
-      <c r="C81" s="42">
-        <v>0</v>
-      </c>
-      <c r="D81" s="42">
-        <v>0</v>
-      </c>
-      <c r="E81" s="42">
-        <v>0</v>
-      </c>
-      <c r="F81" s="43">
-        <v>0</v>
-      </c>
-      <c r="G81" s="33"/>
-      <c r="H81" s="7"/>
+        <v>165</v>
+      </c>
+      <c r="C81" s="45">
+        <v>0</v>
+      </c>
+      <c r="D81" s="45">
+        <v>0</v>
+      </c>
+      <c r="E81" s="45">
+        <v>0</v>
+      </c>
+      <c r="F81" s="45">
+        <v>0</v>
+      </c>
+      <c r="G81" s="32"/>
+      <c r="H81" s="25">
+        <f>SUM(C81:F81)</f>
+        <v>0</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
     </row>
     <row r="82" ht="18" customHeight="1">
-      <c r="A82" t="s" s="21">
-        <v>163</v>
+      <c r="A82" t="s" s="20">
+        <v>166</v>
       </c>
       <c r="B82" t="s" s="30">
-        <v>164</v>
-      </c>
-      <c r="C82" s="42">
-        <v>0</v>
-      </c>
-      <c r="D82" s="42">
-        <v>0</v>
-      </c>
-      <c r="E82" s="42">
-        <v>0</v>
-      </c>
-      <c r="F82" s="43">
-        <v>0</v>
-      </c>
-      <c r="G82" s="41"/>
-      <c r="H82" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="C82" s="45">
+        <v>0</v>
+      </c>
+      <c r="D82" s="45">
+        <v>0</v>
+      </c>
+      <c r="E82" s="45">
+        <v>0</v>
+      </c>
+      <c r="F82" s="45">
+        <v>0</v>
+      </c>
+      <c r="G82" s="44"/>
+      <c r="H82" s="25">
+        <f>SUM(C82:F82)</f>
+        <v>0</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
     </row>
     <row r="83" ht="18" customHeight="1">
-      <c r="A83" t="s" s="21">
-        <v>165</v>
+      <c r="A83" t="s" s="20">
+        <v>168</v>
       </c>
       <c r="B83" t="s" s="30">
-        <v>166</v>
-      </c>
-      <c r="C83" s="48">
+        <v>169</v>
+      </c>
+      <c r="C83" s="57">
         <v>12</v>
       </c>
-      <c r="D83" s="48">
+      <c r="D83" s="57">
         <v>377</v>
       </c>
-      <c r="E83" s="48">
-        <v>0</v>
-      </c>
-      <c r="F83" s="49">
+      <c r="E83" s="57">
+        <v>0</v>
+      </c>
+      <c r="F83" s="57">
         <v>89</v>
       </c>
-      <c r="G83" s="41"/>
-      <c r="H83" s="7"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="25">
+        <f>SUM(C83:F83)</f>
+        <v>478</v>
+      </c>
       <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
+      <c r="J83" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K83" s="9"/>
     </row>
     <row r="84" ht="18" customHeight="1">
-      <c r="A84" t="s" s="21">
-        <v>167</v>
+      <c r="A84" t="s" s="20">
+        <v>170</v>
       </c>
       <c r="B84" t="s" s="30">
-        <v>168</v>
-      </c>
-      <c r="C84" s="50">
-        <v>0</v>
-      </c>
-      <c r="D84" s="50">
-        <v>0</v>
-      </c>
-      <c r="E84" s="50">
-        <v>0</v>
-      </c>
-      <c r="F84" s="51">
-        <v>0</v>
-      </c>
-      <c r="G84" s="41"/>
-      <c r="H84" s="7"/>
+        <v>171</v>
+      </c>
+      <c r="C84" s="58">
+        <v>0</v>
+      </c>
+      <c r="D84" s="58">
+        <v>0</v>
+      </c>
+      <c r="E84" s="58">
+        <v>0</v>
+      </c>
+      <c r="F84" s="58">
+        <v>0</v>
+      </c>
+      <c r="G84" s="44"/>
+      <c r="H84" s="25">
+        <f>SUM(C84:F84)</f>
+        <v>0</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
     </row>
     <row r="85" ht="18" customHeight="1">
-      <c r="A85" t="s" s="21">
-        <v>169</v>
+      <c r="A85" t="s" s="20">
+        <v>172</v>
       </c>
       <c r="B85" t="s" s="30">
-        <v>170</v>
-      </c>
-      <c r="C85" s="42">
+        <v>173</v>
+      </c>
+      <c r="C85" s="45">
         <v>80</v>
       </c>
-      <c r="D85" s="42">
-        <v>0</v>
-      </c>
-      <c r="E85" s="42">
-        <v>0</v>
-      </c>
-      <c r="F85" s="43">
-        <v>0</v>
-      </c>
-      <c r="G85" s="41"/>
-      <c r="H85" s="7"/>
+      <c r="D85" s="45">
+        <v>0</v>
+      </c>
+      <c r="E85" s="45">
+        <v>0</v>
+      </c>
+      <c r="F85" s="45">
+        <v>0</v>
+      </c>
+      <c r="G85" s="44"/>
+      <c r="H85" s="25">
+        <f>SUM(C85:F85)</f>
+        <v>80</v>
+      </c>
       <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
+      <c r="J85" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K85" s="9"/>
     </row>
     <row r="86" ht="18" customHeight="1">
-      <c r="A86" t="s" s="21">
-        <v>171</v>
+      <c r="A86" t="s" s="20">
+        <v>174</v>
       </c>
       <c r="B86" t="s" s="30">
-        <v>172</v>
-      </c>
-      <c r="C86" s="48">
-        <v>0</v>
-      </c>
-      <c r="D86" s="48">
+        <v>175</v>
+      </c>
+      <c r="C86" s="57">
+        <v>0</v>
+      </c>
+      <c r="D86" s="57">
         <v>668</v>
       </c>
-      <c r="E86" s="48">
-        <v>0</v>
-      </c>
-      <c r="F86" s="49">
-        <v>0</v>
-      </c>
-      <c r="G86" s="41"/>
-      <c r="H86" s="7"/>
+      <c r="E86" s="57">
+        <v>0</v>
+      </c>
+      <c r="F86" s="57">
+        <v>0</v>
+      </c>
+      <c r="G86" s="44"/>
+      <c r="H86" s="25">
+        <f>SUM(C86:F86)</f>
+        <v>668</v>
+      </c>
       <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
+      <c r="J86" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K86" s="9"/>
     </row>
     <row r="87" ht="18" customHeight="1">
-      <c r="A87" t="s" s="21">
-        <v>173</v>
+      <c r="A87" t="s" s="20">
+        <v>176</v>
       </c>
       <c r="B87" t="s" s="30">
-        <v>174</v>
-      </c>
-      <c r="C87" s="52">
+        <v>177</v>
+      </c>
+      <c r="C87" s="59">
         <v>4</v>
       </c>
-      <c r="D87" s="52">
+      <c r="D87" s="59">
         <v>163</v>
       </c>
-      <c r="E87" s="52">
-        <v>0</v>
-      </c>
-      <c r="F87" s="53">
+      <c r="E87" s="59">
+        <v>0</v>
+      </c>
+      <c r="F87" s="59">
         <v>30</v>
       </c>
-      <c r="G87" s="20"/>
-      <c r="H87" s="7"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="25">
+        <f>SUM(C87:F87)</f>
+        <v>197</v>
+      </c>
       <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
+      <c r="J87" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K87" s="9"/>
     </row>
     <row r="88" ht="18" customHeight="1">
       <c r="A88" t="s" s="10">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s" s="11">
-        <v>176</v>
-      </c>
-      <c r="C88" s="54">
+        <v>179</v>
+      </c>
+      <c r="C88" s="52">
         <v>260</v>
       </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54">
+      <c r="D88" s="52"/>
+      <c r="E88" s="52">
         <v>65</v>
       </c>
-      <c r="F88" s="55">
+      <c r="F88" s="52">
         <v>1643</v>
       </c>
-      <c r="G88" s="44"/>
-      <c r="H88" s="7"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="25">
+        <f>SUM(C88:F88)</f>
+        <v>1968</v>
+      </c>
       <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
+      <c r="J88" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K88" s="9"/>
     </row>
     <row r="89" ht="18" customHeight="1">
-      <c r="A89" t="s" s="18">
-        <v>177</v>
-      </c>
-      <c r="B89" t="s" s="19">
-        <v>178</v>
+      <c r="A89" t="s" s="17">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s" s="18">
+        <v>181</v>
       </c>
       <c r="C89" s="12">
         <v>188</v>
@@ -4849,175 +5328,243 @@
       <c r="E89" s="12">
         <v>33</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="12">
         <v>279</v>
       </c>
-      <c r="G89" s="44"/>
-      <c r="H89" s="7"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="25">
+        <f>SUM(C89:F89)</f>
+        <v>500</v>
+      </c>
       <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
+      <c r="J89" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K89" s="9"/>
     </row>
     <row r="90" ht="18" customHeight="1">
-      <c r="A90" t="s" s="36">
-        <v>179</v>
-      </c>
-      <c r="B90" t="s" s="40">
-        <v>180</v>
+      <c r="A90" t="s" s="35">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s" s="43">
+        <v>183</v>
       </c>
       <c r="C90" s="12">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D90" s="12">
+        <v>22</v>
+      </c>
+      <c r="E90" s="12">
+        <v>9</v>
+      </c>
+      <c r="F90" s="12">
+        <v>48</v>
+      </c>
+      <c r="G90" s="24"/>
+      <c r="H90" s="25">
+        <f>SUM(C90:F90)</f>
+        <v>83</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" t="s" s="56">
+        <v>85</v>
+      </c>
+      <c r="K90" s="9"/>
+    </row>
+    <row r="91" ht="18" customHeight="1">
+      <c r="A91" t="s" s="60">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s" s="30">
+        <v>185</v>
+      </c>
+      <c r="C91" s="12">
+        <v>6</v>
+      </c>
+      <c r="D91" s="12">
+        <v>28</v>
+      </c>
+      <c r="E91" s="12">
+        <v>11</v>
+      </c>
+      <c r="F91" s="12">
+        <v>62</v>
+      </c>
+      <c r="G91" s="24"/>
+      <c r="H91" s="25">
+        <f>SUM(C91:F91)</f>
+        <v>107</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" t="s" s="56">
+        <v>85</v>
+      </c>
+      <c r="K91" s="9"/>
+    </row>
+    <row r="92" ht="18" customHeight="1">
+      <c r="A92" t="s" s="20">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s" s="30">
+        <v>187</v>
+      </c>
+      <c r="C92" s="45">
+        <v>16</v>
+      </c>
+      <c r="D92" s="45">
+        <v>0</v>
+      </c>
+      <c r="E92" s="45">
+        <v>4</v>
+      </c>
+      <c r="F92" s="45">
+        <v>231</v>
+      </c>
+      <c r="G92" s="32"/>
+      <c r="H92" s="25">
+        <f>SUM(C92:F92)</f>
+        <v>251</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" t="s" s="27">
+        <v>8</v>
+      </c>
+      <c r="K92" s="9"/>
+    </row>
+    <row r="93" ht="18" customHeight="1">
+      <c r="A93" t="s" s="20">
+        <v>188</v>
+      </c>
+      <c r="B93" t="s" s="30">
+        <v>189</v>
+      </c>
+      <c r="C93" s="45">
+        <v>36</v>
+      </c>
+      <c r="D93" s="45">
         <v>50</v>
       </c>
-      <c r="E90" s="12">
+      <c r="E93" s="45">
         <v>20</v>
       </c>
-      <c r="F90" s="13">
-        <v>110</v>
-      </c>
-      <c r="G90" s="44"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-    </row>
-    <row r="91" ht="18" customHeight="1">
-      <c r="A91" t="s" s="21">
-        <v>181</v>
-      </c>
-      <c r="B91" t="s" s="30">
-        <v>182</v>
-      </c>
-      <c r="C91" s="42">
-        <v>16</v>
-      </c>
-      <c r="D91" s="42">
-        <v>0</v>
-      </c>
-      <c r="E91" s="42">
-        <v>4</v>
-      </c>
-      <c r="F91" s="43">
-        <v>231</v>
-      </c>
-      <c r="G91" s="33"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-    </row>
-    <row r="92" ht="18" customHeight="1">
-      <c r="A92" t="s" s="21">
-        <v>183</v>
-      </c>
-      <c r="B92" t="s" s="30">
-        <v>184</v>
-      </c>
-      <c r="C92" s="42">
-        <v>36</v>
-      </c>
-      <c r="D92" s="42">
-        <v>50</v>
-      </c>
-      <c r="E92" s="42">
+      <c r="F93" s="45">
+        <v>143</v>
+      </c>
+      <c r="G93" s="44"/>
+      <c r="H93" s="25">
+        <f>SUM(C93:F93)</f>
+        <v>249</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" t="s" s="27">
+        <v>8</v>
+      </c>
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" ht="18" customHeight="1">
+      <c r="A94" t="s" s="61">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s" s="62">
+        <v>191</v>
+      </c>
+      <c r="C94" s="45">
+        <v>6</v>
+      </c>
+      <c r="D94" s="57">
         <v>20</v>
       </c>
-      <c r="F92" s="43">
-        <v>143</v>
-      </c>
-      <c r="G92" s="41"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
-    </row>
-    <row r="93" ht="18" customHeight="1">
-      <c r="A93" t="s" s="56">
-        <v>185</v>
-      </c>
-      <c r="B93" t="s" s="57">
-        <v>186</v>
-      </c>
-      <c r="C93" s="42">
-        <v>6</v>
-      </c>
-      <c r="D93" s="48">
-        <v>20</v>
-      </c>
-      <c r="E93" s="48">
-        <v>0</v>
-      </c>
-      <c r="F93" s="49">
+      <c r="E94" s="57">
+        <v>0</v>
+      </c>
+      <c r="F94" s="57">
         <v>46</v>
       </c>
-      <c r="G93" s="20"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
-    </row>
-    <row r="94" ht="18" customHeight="1">
-      <c r="A94" t="s" s="45">
-        <v>187</v>
-      </c>
-      <c r="B94" t="s" s="58">
-        <v>188</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="59"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="9"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="25">
+        <f>SUM(C94:F94)</f>
+        <v>72</v>
+      </c>
       <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
+      <c r="J94" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="K94" s="9"/>
     </row>
     <row r="95" ht="18" customHeight="1">
-      <c r="A95" t="s" s="62">
-        <v>189</v>
+      <c r="A95" t="s" s="53">
+        <v>192</v>
       </c>
       <c r="B95" t="s" s="63">
-        <v>190</v>
-      </c>
-      <c r="C95" s="12"/>
-      <c r="D95" s="64">
-        <v>600</v>
-      </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="65">
-        <v>200</v>
-      </c>
-      <c r="G95" s="66"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="8"/>
+        <v>193</v>
+      </c>
+      <c r="C95" s="64"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="25">
+        <f>SUM(C95:F95)</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
     </row>
     <row r="96" ht="18" customHeight="1">
-      <c r="A96" t="s" s="67">
-        <v>187</v>
+      <c r="A96" t="s" s="68">
+        <v>194</v>
       </c>
       <c r="B96" t="s" s="69">
-        <v>191</v>
-      </c>
-      <c r="C96" s="64"/>
+        <v>195</v>
+      </c>
+      <c r="C96" s="12"/>
       <c r="D96" s="70">
+        <v>600</v>
+      </c>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70">
+        <v>200</v>
+      </c>
+      <c r="G96" s="71"/>
+      <c r="H96" s="25">
+        <f>SUM(C96:F96)</f>
+        <v>800</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" t="s" s="27">
+        <v>8</v>
+      </c>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" ht="18" customHeight="1">
+      <c r="A97" t="s" s="72">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s" s="73">
+        <v>197</v>
+      </c>
+      <c r="C97" s="70"/>
+      <c r="D97" s="74">
         <v>5200</v>
       </c>
-      <c r="E96" s="70">
+      <c r="E97" s="74">
         <v>50</v>
       </c>
-      <c r="F96" s="71">
+      <c r="F97" s="74">
         <v>24</v>
       </c>
-      <c r="G96" s="14"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="72"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="9"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14">
+        <f>SUM(C97:F97)</f>
+        <v>5274</v>
+      </c>
+      <c r="I97" s="75"/>
+      <c r="J97" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="K97" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
